--- a/Assets/Batch Register Parts/Batch Build.xlsx
+++ b/Assets/Batch Register Parts/Batch Build.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PartsHunter\Assets\Batch Register Parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96984BE8-D480-4A8C-860F-DE0BAE5114A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20E77FC-1555-4D61-9511-0D2FDFAAFA75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{EA03BA3F-EF08-4D3E-B130-CAB43F857BBF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="3" xr2:uid="{EA03BA3F-EF08-4D3E-B130-CAB43F857BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="RESISTOR PTH" sheetId="2" r:id="rId1"/>
@@ -537,9 +537,6 @@
     <t>(Rectifier) 1A</t>
   </si>
   <si>
-    <t>(Signal) 0,3A</t>
-  </si>
-  <si>
     <t>1N5399</t>
   </si>
   <si>
@@ -655,6 +652,9 @@
   </si>
   <si>
     <t>TRIMPOTS</t>
+  </si>
+  <si>
+    <t>(Signal) 0.3A</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7122DCE7-FDF0-4C23-88EA-E5B3B027966C}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A16" sqref="A1:A16"/>
     </sheetView>
   </sheetViews>
@@ -1032,7 +1032,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>35</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>36</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>37</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>38</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>39</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>40</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>41</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>42</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>43</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>44</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>45</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>46</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>47</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>48</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>49</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>50</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>51</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>52</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>53</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>54</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>55</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>56</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>57</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>58</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>59</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>60</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>61</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>62</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>63</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>64</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>65</v>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>66</v>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>67</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>68</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>69</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>70</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>71</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>72</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>73</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>74</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>75</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>76</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>77</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>78</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>79</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>80</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>81</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>82</v>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>83</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>84</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>85</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>86</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>87</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>88</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>89</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>90</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>91</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>92</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>93</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>94</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>95</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>96</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>97</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>98</v>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>99</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>100</v>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>101</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>102</v>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>103</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>104</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>105</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>106</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>107</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>108</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>109</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>110</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>111</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>112</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>113</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>114</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>115</v>
@@ -2733,7 +2733,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>116</v>
@@ -2754,7 +2754,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>117</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>118</v>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>119</v>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>120</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>121</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>122</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>123</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>124</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>125</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>126</v>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>127</v>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>128</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>129</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>130</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>131</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>132</v>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>133</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>134</v>
@@ -3157,7 +3157,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -3304,7 +3304,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
@@ -3430,7 +3430,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>21</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>22</v>
@@ -3598,7 +3598,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>23</v>
@@ -3619,7 +3619,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>26</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>28</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>29</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>30</v>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>31</v>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>33</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>34</v>
@@ -3829,7 +3829,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>135</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>136</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>137</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>138</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>139</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>140</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>141</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>142</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>143</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>144</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>145</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>146</v>
@@ -4106,7 +4106,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>148</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>82</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>149</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>96</v>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>100</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>150</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>115</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>119</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>131</v>
@@ -4323,8 +4323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869B2999-9EDC-43C8-A93C-53379E3298B9}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4349,7 +4349,7 @@
         <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="G1" s="1" t="str">
         <f>_xlfn.CONCAT(A1,",",B1," ", C1, " ",D1,",",E1)</f>
-        <v>DIODES,1N4148 (Signal) 0,3A PTH,155</v>
+        <v>DIODES,1N4148 (Signal) 0.3A PTH,155</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4391,7 +4391,7 @@
         <v>164</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -4409,10 +4409,10 @@
         <v>161</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
@@ -4430,10 +4430,10 @@
         <v>161</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
@@ -4451,10 +4451,10 @@
         <v>161</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
@@ -4472,10 +4472,10 @@
         <v>161</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>1</v>
@@ -4493,10 +4493,10 @@
         <v>161</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>1</v>
@@ -4514,10 +4514,10 @@
         <v>161</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>1</v>
@@ -4535,10 +4535,10 @@
         <v>161</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -4556,10 +4556,10 @@
         <v>161</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -4577,10 +4577,10 @@
         <v>161</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>1</v>
@@ -4598,10 +4598,10 @@
         <v>161</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
@@ -4619,10 +4619,10 @@
         <v>161</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>1</v>
@@ -4640,10 +4640,10 @@
         <v>161</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -4661,10 +4661,10 @@
         <v>161</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1</v>
@@ -4682,10 +4682,10 @@
         <v>161</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
@@ -4703,10 +4703,10 @@
         <v>161</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>1</v>
@@ -4724,10 +4724,10 @@
         <v>161</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
@@ -4745,10 +4745,10 @@
         <v>161</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>1</v>
@@ -4766,10 +4766,10 @@
         <v>161</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>1</v>
@@ -4787,10 +4787,10 @@
         <v>161</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -4805,13 +4805,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
@@ -4826,13 +4826,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -4847,13 +4847,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
@@ -4868,13 +4868,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
@@ -4889,13 +4889,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -4910,13 +4910,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1</v>
@@ -4931,13 +4931,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1</v>
@@ -4952,13 +4952,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -4973,13 +4973,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>1</v>
@@ -4994,13 +4994,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>1</v>

--- a/Assets/Batch Register Parts/Batch Build.xlsx
+++ b/Assets/Batch Register Parts/Batch Build.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PartsHunter\Assets\Batch Register Parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B161E2-A7C0-488F-8616-75B0C0891F47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B4C047-6834-4CE2-BCC0-B0890FAFF4CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33504" yWindow="4164" windowWidth="18048" windowHeight="7968" activeTab="2" xr2:uid="{EA03BA3F-EF08-4D3E-B130-CAB43F857BBF}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="28776" windowHeight="16176" activeTab="2" xr2:uid="{EA03BA3F-EF08-4D3E-B130-CAB43F857BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="RESISTORS" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2833" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="549">
   <si>
     <t>1/2W</t>
   </si>
@@ -1688,6 +1688,9 @@
   </si>
   <si>
     <t>1%</t>
+  </si>
+  <si>
+    <t>6.3V 5% Ceramic</t>
   </si>
 </sst>
 </file>
@@ -2142,10 +2145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7122DCE7-FDF0-4C23-88EA-E5B3B027966C}">
-  <dimension ref="A1:Y332"/>
+  <dimension ref="A1:Y336"/>
   <sheetViews>
-    <sheetView topLeftCell="A259" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G326"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G330" sqref="G1:G330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3542,7 +3545,7 @@
         <v>66</v>
       </c>
       <c r="G66" s="1" t="str">
-        <f t="shared" ref="G66:G129" si="1">_xlfn.CONCAT(A66,",",B66," ", C66, " ",D66,",",E66)</f>
+        <f t="shared" ref="G66:G130" si="1">_xlfn.CONCAT(A66,",",B66," ", C66, " ",D66,",",E66)</f>
         <v>RESISTORS,20k 1/2W PTH,66</v>
       </c>
     </row>
@@ -4643,7 +4646,7 @@
         <v>202</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C119" s="15" t="s">
         <v>547</v>
@@ -4656,7 +4659,7 @@
       </c>
       <c r="G119" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>RESISTORS,51R 1% 0603 SMD,119</v>
+        <v>RESISTORS,47R 1% 0603 SMD,119</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -4664,7 +4667,7 @@
         <v>202</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C120" s="15" t="s">
         <v>547</v>
@@ -4677,7 +4680,7 @@
       </c>
       <c r="G120" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>RESISTORS,68R 1% 0603 SMD,120</v>
+        <v>RESISTORS,51R 1% 0603 SMD,120</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -4685,7 +4688,7 @@
         <v>202</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C121" s="15" t="s">
         <v>547</v>
@@ -4698,7 +4701,7 @@
       </c>
       <c r="G121" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>RESISTORS,82R 1% 0603 SMD,121</v>
+        <v>RESISTORS,68R 1% 0603 SMD,121</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -4706,7 +4709,7 @@
         <v>202</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C122" s="15" t="s">
         <v>547</v>
@@ -4719,7 +4722,7 @@
       </c>
       <c r="G122" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>RESISTORS,100R 1% 0603 SMD,122</v>
+        <v>RESISTORS,82R 1% 0603 SMD,122</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
@@ -4727,7 +4730,7 @@
         <v>202</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C123" s="15" t="s">
         <v>547</v>
@@ -4740,7 +4743,7 @@
       </c>
       <c r="G123" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>RESISTORS,120R 1% 0603 SMD,123</v>
+        <v>RESISTORS,100R 1% 0603 SMD,123</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
@@ -4748,7 +4751,7 @@
         <v>202</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C124" s="15" t="s">
         <v>547</v>
@@ -4761,7 +4764,7 @@
       </c>
       <c r="G124" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>RESISTORS,150R 1% 0603 SMD,124</v>
+        <v>RESISTORS,120R 1% 0603 SMD,124</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
@@ -4769,7 +4772,7 @@
         <v>202</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C125" s="15" t="s">
         <v>547</v>
@@ -4782,7 +4785,7 @@
       </c>
       <c r="G125" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>RESISTORS,200R 1% 0603 SMD,125</v>
+        <v>RESISTORS,150R 1% 0603 SMD,125</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -4790,7 +4793,7 @@
         <v>202</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C126" s="15" t="s">
         <v>547</v>
@@ -4803,7 +4806,7 @@
       </c>
       <c r="G126" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>RESISTORS,270R 1% 0603 SMD,126</v>
+        <v>RESISTORS,200R 1% 0603 SMD,126</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -4811,7 +4814,7 @@
         <v>202</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C127" s="15" t="s">
         <v>547</v>
@@ -4824,7 +4827,7 @@
       </c>
       <c r="G127" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>RESISTORS,330R 1% 0603 SMD,127</v>
+        <v>RESISTORS,270R 1% 0603 SMD,127</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -4832,7 +4835,7 @@
         <v>202</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C128" s="15" t="s">
         <v>547</v>
@@ -4845,7 +4848,7 @@
       </c>
       <c r="G128" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>RESISTORS,430R 1% 0603 SMD,128</v>
+        <v>RESISTORS,330R 1% 0603 SMD,128</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -4853,7 +4856,7 @@
         <v>202</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C129" s="15" t="s">
         <v>547</v>
@@ -4866,7 +4869,7 @@
       </c>
       <c r="G129" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>RESISTORS,510R 1% 0603 SMD,129</v>
+        <v>RESISTORS,430R 1% 0603 SMD,129</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
@@ -4874,7 +4877,7 @@
         <v>202</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C130" s="15" t="s">
         <v>547</v>
@@ -4886,8 +4889,8 @@
         <v>130</v>
       </c>
       <c r="G130" s="1" t="str">
-        <f t="shared" ref="G130:G193" si="2">_xlfn.CONCAT(A130,",",B130," ", C130, " ",D130,",",E130)</f>
-        <v>RESISTORS,680R 1% 0603 SMD,130</v>
+        <f t="shared" si="1"/>
+        <v>RESISTORS,510R 1% 0603 SMD,130</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -4895,7 +4898,7 @@
         <v>202</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C131" s="15" t="s">
         <v>547</v>
@@ -4907,8 +4910,8 @@
         <v>131</v>
       </c>
       <c r="G131" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>RESISTORS,820R 1% 0603 SMD,131</v>
+        <f t="shared" ref="G131:G197" si="2">_xlfn.CONCAT(A131,",",B131," ", C131, " ",D131,",",E131)</f>
+        <v>RESISTORS,680R 1% 0603 SMD,131</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -4916,7 +4919,7 @@
         <v>202</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C132" s="15" t="s">
         <v>547</v>
@@ -4929,7 +4932,7 @@
       </c>
       <c r="G132" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,1k 1% 0603 SMD,132</v>
+        <v>RESISTORS,820R 1% 0603 SMD,132</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -4937,7 +4940,7 @@
         <v>202</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C133" s="15" t="s">
         <v>547</v>
@@ -4950,7 +4953,7 @@
       </c>
       <c r="G133" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,1.2k 1% 0603 SMD,133</v>
+        <v>RESISTORS,1k 1% 0603 SMD,133</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -4958,7 +4961,7 @@
         <v>202</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C134" s="15" t="s">
         <v>547</v>
@@ -4971,7 +4974,7 @@
       </c>
       <c r="G134" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,1.5k 1% 0603 SMD,134</v>
+        <v>RESISTORS,1.2k 1% 0603 SMD,134</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -4979,7 +4982,7 @@
         <v>202</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C135" s="15" t="s">
         <v>547</v>
@@ -4992,7 +4995,7 @@
       </c>
       <c r="G135" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,2k 1% 0603 SMD,135</v>
+        <v>RESISTORS,1.5k 1% 0603 SMD,135</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -5000,7 +5003,7 @@
         <v>202</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C136" s="15" t="s">
         <v>547</v>
@@ -5013,7 +5016,7 @@
       </c>
       <c r="G136" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,2.7k 1% 0603 SMD,136</v>
+        <v>RESISTORS,2k 1% 0603 SMD,136</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -5021,7 +5024,7 @@
         <v>202</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C137" s="15" t="s">
         <v>547</v>
@@ -5034,7 +5037,7 @@
       </c>
       <c r="G137" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,3.3k 1% 0603 SMD,137</v>
+        <v>RESISTORS,2.7k 1% 0603 SMD,137</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -5042,7 +5045,7 @@
         <v>202</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C138" s="15" t="s">
         <v>547</v>
@@ -5055,7 +5058,7 @@
       </c>
       <c r="G138" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,4.3k 1% 0603 SMD,138</v>
+        <v>RESISTORS,3.3k 1% 0603 SMD,138</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -5063,7 +5066,7 @@
         <v>202</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C139" s="15" t="s">
         <v>547</v>
@@ -5076,7 +5079,7 @@
       </c>
       <c r="G139" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,5.1k 1% 0603 SMD,139</v>
+        <v>RESISTORS,4.3k 1% 0603 SMD,139</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -5084,7 +5087,7 @@
         <v>202</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C140" s="15" t="s">
         <v>547</v>
@@ -5097,7 +5100,7 @@
       </c>
       <c r="G140" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,6.8k 1% 0603 SMD,140</v>
+        <v>RESISTORS,5.1k 1% 0603 SMD,140</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -5105,7 +5108,7 @@
         <v>202</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C141" s="15" t="s">
         <v>547</v>
@@ -5118,7 +5121,7 @@
       </c>
       <c r="G141" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,8.2k 1% 0603 SMD,141</v>
+        <v>RESISTORS,6.8k 1% 0603 SMD,141</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -5126,7 +5129,7 @@
         <v>202</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C142" s="15" t="s">
         <v>547</v>
@@ -5139,7 +5142,7 @@
       </c>
       <c r="G142" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,10k 1% 0603 SMD,142</v>
+        <v>RESISTORS,8.2k 1% 0603 SMD,142</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -5147,7 +5150,7 @@
         <v>202</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C143" s="15" t="s">
         <v>547</v>
@@ -5160,7 +5163,7 @@
       </c>
       <c r="G143" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,12k 1% 0603 SMD,143</v>
+        <v>RESISTORS,10k 1% 0603 SMD,143</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -5168,7 +5171,7 @@
         <v>202</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C144" s="15" t="s">
         <v>547</v>
@@ -5181,7 +5184,7 @@
       </c>
       <c r="G144" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,15k 1% 0603 SMD,144</v>
+        <v>RESISTORS,12k 1% 0603 SMD,144</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
@@ -5189,7 +5192,7 @@
         <v>202</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C145" s="15" t="s">
         <v>547</v>
@@ -5202,7 +5205,7 @@
       </c>
       <c r="G145" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,20k 1% 0603 SMD,145</v>
+        <v>RESISTORS,15k 1% 0603 SMD,145</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
@@ -5210,7 +5213,7 @@
         <v>202</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C146" s="15" t="s">
         <v>547</v>
@@ -5223,7 +5226,7 @@
       </c>
       <c r="G146" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,27k 1% 0603 SMD,146</v>
+        <v>RESISTORS,20k 1% 0603 SMD,146</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
@@ -5231,7 +5234,7 @@
         <v>202</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C147" s="15" t="s">
         <v>547</v>
@@ -5244,7 +5247,7 @@
       </c>
       <c r="G147" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,33k 1% 0603 SMD,147</v>
+        <v>RESISTORS,27k 1% 0603 SMD,147</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -5252,7 +5255,7 @@
         <v>202</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C148" s="15" t="s">
         <v>547</v>
@@ -5265,7 +5268,7 @@
       </c>
       <c r="G148" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,43k 1% 0603 SMD,148</v>
+        <v>RESISTORS,33k 1% 0603 SMD,148</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -5273,7 +5276,7 @@
         <v>202</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C149" s="15" t="s">
         <v>547</v>
@@ -5286,7 +5289,7 @@
       </c>
       <c r="G149" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,51k 1% 0603 SMD,149</v>
+        <v>RESISTORS,39k 1% 0603 SMD,149</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
@@ -5294,7 +5297,7 @@
         <v>202</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C150" s="15" t="s">
         <v>547</v>
@@ -5307,7 +5310,7 @@
       </c>
       <c r="G150" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,68k 1% 0603 SMD,150</v>
+        <v>RESISTORS,43k 1% 0603 SMD,150</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -5315,7 +5318,7 @@
         <v>202</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C151" s="15" t="s">
         <v>547</v>
@@ -5328,7 +5331,7 @@
       </c>
       <c r="G151" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,82k 1% 0603 SMD,151</v>
+        <v>RESISTORS,47k 1% 0603 SMD,151</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
@@ -5336,7 +5339,7 @@
         <v>202</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C152" s="15" t="s">
         <v>547</v>
@@ -5349,7 +5352,7 @@
       </c>
       <c r="G152" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,100k 1% 0603 SMD,152</v>
+        <v>RESISTORS,51k 1% 0603 SMD,152</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -5357,7 +5360,7 @@
         <v>202</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C153" s="15" t="s">
         <v>547</v>
@@ -5370,7 +5373,7 @@
       </c>
       <c r="G153" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,120k 1% 0603 SMD,153</v>
+        <v>RESISTORS,68k 1% 0603 SMD,153</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -5378,7 +5381,7 @@
         <v>202</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C154" s="15" t="s">
         <v>547</v>
@@ -5391,7 +5394,7 @@
       </c>
       <c r="G154" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,150k 1% 0603 SMD,154</v>
+        <v>RESISTORS,82k 1% 0603 SMD,154</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
@@ -5399,7 +5402,7 @@
         <v>202</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C155" s="15" t="s">
         <v>547</v>
@@ -5412,7 +5415,7 @@
       </c>
       <c r="G155" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,200k 1% 0603 SMD,155</v>
+        <v>RESISTORS,100k 1% 0603 SMD,155</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
@@ -5420,7 +5423,7 @@
         <v>202</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C156" s="15" t="s">
         <v>547</v>
@@ -5433,7 +5436,7 @@
       </c>
       <c r="G156" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,270k 1% 0603 SMD,156</v>
+        <v>RESISTORS,120k 1% 0603 SMD,156</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
@@ -5441,7 +5444,7 @@
         <v>202</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C157" s="15" t="s">
         <v>547</v>
@@ -5454,7 +5457,7 @@
       </c>
       <c r="G157" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,330k 1% 0603 SMD,157</v>
+        <v>RESISTORS,150k 1% 0603 SMD,157</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
@@ -5462,7 +5465,7 @@
         <v>202</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C158" s="15" t="s">
         <v>547</v>
@@ -5475,7 +5478,7 @@
       </c>
       <c r="G158" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,430k 1% 0603 SMD,158</v>
+        <v>RESISTORS,200k 1% 0603 SMD,158</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
@@ -5483,7 +5486,7 @@
         <v>202</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C159" s="15" t="s">
         <v>547</v>
@@ -5496,7 +5499,7 @@
       </c>
       <c r="G159" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,510k 1% 0603 SMD,159</v>
+        <v>RESISTORS,220k 1% 0603 SMD,159</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
@@ -5504,7 +5507,7 @@
         <v>202</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C160" s="15" t="s">
         <v>547</v>
@@ -5517,7 +5520,7 @@
       </c>
       <c r="G160" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,680k 1% 0603 SMD,160</v>
+        <v>RESISTORS,270k 1% 0603 SMD,160</v>
       </c>
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.3">
@@ -5525,7 +5528,7 @@
         <v>202</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C161" s="15" t="s">
         <v>547</v>
@@ -5538,7 +5541,7 @@
       </c>
       <c r="G161" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,820k 1% 0603 SMD,161</v>
+        <v>RESISTORS,330k 1% 0603 SMD,161</v>
       </c>
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.3">
@@ -5546,7 +5549,7 @@
         <v>202</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C162" s="15" t="s">
         <v>547</v>
@@ -5559,7 +5562,7 @@
       </c>
       <c r="G162" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,1M 1% 0603 SMD,162</v>
+        <v>RESISTORS,430k 1% 0603 SMD,162</v>
       </c>
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.3">
@@ -5567,7 +5570,7 @@
         <v>202</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C163" s="15" t="s">
         <v>547</v>
@@ -5580,7 +5583,7 @@
       </c>
       <c r="G163" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,2M 1% 0603 SMD,163</v>
+        <v>RESISTORS,510k 1% 0603 SMD,163</v>
       </c>
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.3">
@@ -5588,20 +5591,20 @@
         <v>202</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>368</v>
+        <v>129</v>
       </c>
       <c r="C164" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="D164" s="14" t="s">
-        <v>383</v>
+      <c r="D164" s="13" t="s">
+        <v>367</v>
       </c>
       <c r="E164" s="1">
         <v>164</v>
       </c>
       <c r="G164" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,0R 1% 0805 SMD,164</v>
+        <v>RESISTORS,680k 1% 0603 SMD,164</v>
       </c>
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.3">
@@ -5609,74 +5612,70 @@
         <v>202</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="C165" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="D165" s="14" t="s">
-        <v>383</v>
+      <c r="D165" s="13" t="s">
+        <v>367</v>
       </c>
       <c r="E165" s="1">
         <v>165</v>
       </c>
       <c r="G165" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,1R 1% 0805 SMD,165</v>
-      </c>
-      <c r="Y165" s="8"/>
+        <v>RESISTORS,820k 1% 0603 SMD,165</v>
+      </c>
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>384</v>
+        <v>131</v>
       </c>
       <c r="C166" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="D166" s="14" t="s">
-        <v>383</v>
+      <c r="D166" s="13" t="s">
+        <v>367</v>
       </c>
       <c r="E166" s="1">
         <v>166</v>
       </c>
       <c r="G166" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,1.1R 1% 0805 SMD,166</v>
-      </c>
-      <c r="Q166" s="8"/>
-      <c r="Y166" s="8"/>
+        <v>RESISTORS,1M 1% 0603 SMD,166</v>
+      </c>
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="C167" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="D167" s="14" t="s">
-        <v>383</v>
+      <c r="D167" s="13" t="s">
+        <v>367</v>
       </c>
       <c r="E167" s="1">
         <v>167</v>
       </c>
       <c r="G167" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,1.2R 1% 0805 SMD,167</v>
-      </c>
-      <c r="Y167" s="8"/>
+        <v>RESISTORS,2M 1% 0603 SMD,167</v>
+      </c>
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="C168" s="15" t="s">
         <v>547</v>
@@ -5689,16 +5688,15 @@
       </c>
       <c r="G168" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,1.3R 1% 0805 SMD,168</v>
-      </c>
-      <c r="Y168" s="8"/>
+        <v>RESISTORS,0R 1% 0805 SMD,168</v>
+      </c>
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>369</v>
+        <v>35</v>
       </c>
       <c r="C169" s="15" t="s">
         <v>547</v>
@@ -5711,7 +5709,7 @@
       </c>
       <c r="G169" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,1.5R 1% 0805 SMD,169</v>
+        <v>RESISTORS,1R 1% 0805 SMD,169</v>
       </c>
       <c r="Y169" s="8"/>
     </row>
@@ -5720,7 +5718,7 @@
         <v>202</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C170" s="15" t="s">
         <v>547</v>
@@ -5733,8 +5731,9 @@
       </c>
       <c r="G170" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,1.6R 1% 0805 SMD,170</v>
-      </c>
+        <v>RESISTORS,1.1R 1% 0805 SMD,170</v>
+      </c>
+      <c r="Q170" s="8"/>
       <c r="Y170" s="8"/>
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.3">
@@ -5742,7 +5741,7 @@
         <v>202</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C171" s="15" t="s">
         <v>547</v>
@@ -5755,7 +5754,7 @@
       </c>
       <c r="G171" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,1.8R 1% 0805 SMD,171</v>
+        <v>RESISTORS,1.2R 1% 0805 SMD,171</v>
       </c>
       <c r="Y171" s="8"/>
     </row>
@@ -5764,7 +5763,7 @@
         <v>202</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="C172" s="15" t="s">
         <v>547</v>
@@ -5777,7 +5776,7 @@
       </c>
       <c r="G172" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,2R 1% 0805 SMD,172</v>
+        <v>RESISTORS,1.3R 1% 0805 SMD,172</v>
       </c>
       <c r="Y172" s="8"/>
     </row>
@@ -5786,7 +5785,7 @@
         <v>202</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>38</v>
+        <v>369</v>
       </c>
       <c r="C173" s="15" t="s">
         <v>547</v>
@@ -5799,7 +5798,7 @@
       </c>
       <c r="G173" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,2.2R 1% 0805 SMD,173</v>
+        <v>RESISTORS,1.5R 1% 0805 SMD,173</v>
       </c>
       <c r="Y173" s="8"/>
     </row>
@@ -5808,7 +5807,7 @@
         <v>202</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C174" s="15" t="s">
         <v>547</v>
@@ -5821,16 +5820,16 @@
       </c>
       <c r="G174" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,2.4R 1% 0805 SMD,174</v>
-      </c>
-      <c r="Y174" s="9"/>
+        <v>RESISTORS,1.6R 1% 0805 SMD,174</v>
+      </c>
+      <c r="Y174" s="8"/>
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>371</v>
+        <v>37</v>
       </c>
       <c r="C175" s="15" t="s">
         <v>547</v>
@@ -5843,9 +5842,8 @@
       </c>
       <c r="G175" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,2.7R 1% 0805 SMD,175</v>
-      </c>
-      <c r="Q175" s="8"/>
+        <v>RESISTORS,1.8R 1% 0805 SMD,175</v>
+      </c>
       <c r="Y175" s="8"/>
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.3">
@@ -5853,7 +5851,7 @@
         <v>202</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="C176" s="15" t="s">
         <v>547</v>
@@ -5866,7 +5864,7 @@
       </c>
       <c r="G176" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,3R 1% 0805 SMD,176</v>
+        <v>RESISTORS,2R 1% 0805 SMD,176</v>
       </c>
       <c r="Y176" s="8"/>
     </row>
@@ -5875,7 +5873,7 @@
         <v>202</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C177" s="15" t="s">
         <v>547</v>
@@ -5888,7 +5886,7 @@
       </c>
       <c r="G177" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,3.3R 1% 0805 SMD,177</v>
+        <v>RESISTORS,2.2R 1% 0805 SMD,177</v>
       </c>
       <c r="Y177" s="8"/>
     </row>
@@ -5897,7 +5895,7 @@
         <v>202</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C178" s="15" t="s">
         <v>547</v>
@@ -5910,16 +5908,16 @@
       </c>
       <c r="G178" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,3.6R 1% 0805 SMD,178</v>
-      </c>
-      <c r="Y178" s="8"/>
+        <v>RESISTORS,2.4R 1% 0805 SMD,178</v>
+      </c>
+      <c r="Y178" s="9"/>
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="C179" s="15" t="s">
         <v>547</v>
@@ -5932,15 +5930,17 @@
       </c>
       <c r="G179" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,3.9R 1% 0805 SMD,179</v>
-      </c>
+        <v>RESISTORS,2.7R 1% 0805 SMD,179</v>
+      </c>
+      <c r="Q179" s="8"/>
+      <c r="Y179" s="8"/>
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="C180" s="15" t="s">
         <v>547</v>
@@ -5953,15 +5953,16 @@
       </c>
       <c r="G180" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,4.3R 1% 0805 SMD,180</v>
-      </c>
+        <v>RESISTORS,3R 1% 0805 SMD,180</v>
+      </c>
+      <c r="Y180" s="8"/>
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C181" s="15" t="s">
         <v>547</v>
@@ -5974,15 +5975,16 @@
       </c>
       <c r="G181" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,4.7R 1% 0805 SMD,181</v>
-      </c>
+        <v>RESISTORS,3.3R 1% 0805 SMD,181</v>
+      </c>
+      <c r="Y181" s="8"/>
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="C182" s="15" t="s">
         <v>547</v>
@@ -5995,15 +5997,16 @@
       </c>
       <c r="G182" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,5.1R 1% 0805 SMD,182</v>
-      </c>
+        <v>RESISTORS,3.6R 1% 0805 SMD,182</v>
+      </c>
+      <c r="Y182" s="8"/>
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>41</v>
+        <v>390</v>
       </c>
       <c r="C183" s="15" t="s">
         <v>547</v>
@@ -6016,7 +6019,7 @@
       </c>
       <c r="G183" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,5.6R 1% 0805 SMD,183</v>
+        <v>RESISTORS,3.9R 1% 0805 SMD,183</v>
       </c>
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.3">
@@ -6024,7 +6027,7 @@
         <v>202</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>431</v>
+        <v>372</v>
       </c>
       <c r="C184" s="15" t="s">
         <v>547</v>
@@ -6037,16 +6040,15 @@
       </c>
       <c r="G184" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,6.2R 1% 0805 SMD,184</v>
-      </c>
-      <c r="Q184" s="8"/>
+        <v>RESISTORS,4.3R 1% 0805 SMD,184</v>
+      </c>
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C185" s="15" t="s">
         <v>547</v>
@@ -6059,7 +6061,7 @@
       </c>
       <c r="G185" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,6.8R 1% 0805 SMD,185</v>
+        <v>RESISTORS,4.7R 1% 0805 SMD,185</v>
       </c>
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.3">
@@ -6067,7 +6069,7 @@
         <v>202</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C186" s="15" t="s">
         <v>547</v>
@@ -6080,7 +6082,7 @@
       </c>
       <c r="G186" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,8.2R 1% 0805 SMD,186</v>
+        <v>RESISTORS,5.1R 1% 0805 SMD,186</v>
       </c>
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.3">
@@ -6088,7 +6090,7 @@
         <v>202</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>432</v>
+        <v>41</v>
       </c>
       <c r="C187" s="15" t="s">
         <v>547</v>
@@ -6101,7 +6103,7 @@
       </c>
       <c r="G187" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,9.1R 1% 0805 SMD,187</v>
+        <v>RESISTORS,5.6R 1% 0805 SMD,187</v>
       </c>
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.3">
@@ -6109,7 +6111,7 @@
         <v>202</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="C188" s="15" t="s">
         <v>547</v>
@@ -6122,15 +6124,16 @@
       </c>
       <c r="G188" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,10R 1% 0805 SMD,188</v>
-      </c>
+        <v>RESISTORS,6.2R 1% 0805 SMD,188</v>
+      </c>
+      <c r="Q188" s="8"/>
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>433</v>
+        <v>42</v>
       </c>
       <c r="C189" s="15" t="s">
         <v>547</v>
@@ -6143,7 +6146,7 @@
       </c>
       <c r="G189" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,11R 1% 0805 SMD,189</v>
+        <v>RESISTORS,6.8R 1% 0805 SMD,189</v>
       </c>
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.3">
@@ -6151,7 +6154,7 @@
         <v>202</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>44</v>
+        <v>374</v>
       </c>
       <c r="C190" s="15" t="s">
         <v>547</v>
@@ -6164,7 +6167,7 @@
       </c>
       <c r="G190" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,12R 1% 0805 SMD,190</v>
+        <v>RESISTORS,8.2R 1% 0805 SMD,190</v>
       </c>
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.3">
@@ -6172,7 +6175,7 @@
         <v>202</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C191" s="15" t="s">
         <v>547</v>
@@ -6185,7 +6188,7 @@
       </c>
       <c r="G191" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,13R 1% 0805 SMD,191</v>
+        <v>RESISTORS,9.1R 1% 0805 SMD,191</v>
       </c>
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.3">
@@ -6193,7 +6196,7 @@
         <v>202</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C192" s="15" t="s">
         <v>547</v>
@@ -6206,7 +6209,7 @@
       </c>
       <c r="G192" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,15R 1% 0805 SMD,192</v>
+        <v>RESISTORS,10R 1% 0805 SMD,192</v>
       </c>
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,7 +6217,7 @@
         <v>202</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C193" s="15" t="s">
         <v>547</v>
@@ -6227,16 +6230,15 @@
       </c>
       <c r="G193" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>RESISTORS,16R 1% 0805 SMD,193</v>
-      </c>
-      <c r="Q193" s="8"/>
+        <v>RESISTORS,11R 1% 0805 SMD,193</v>
+      </c>
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C194" s="15" t="s">
         <v>547</v>
@@ -6248,8 +6250,8 @@
         <v>194</v>
       </c>
       <c r="G194" s="1" t="str">
-        <f t="shared" ref="G194:G257" si="3">_xlfn.CONCAT(A194,",",B194," ", C194, " ",D194,",",E194)</f>
-        <v>RESISTORS,18R 1% 0805 SMD,194</v>
+        <f t="shared" si="2"/>
+        <v>RESISTORS,12R 1% 0805 SMD,194</v>
       </c>
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.3">
@@ -6257,7 +6259,7 @@
         <v>202</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>47</v>
+        <v>434</v>
       </c>
       <c r="C195" s="15" t="s">
         <v>547</v>
@@ -6269,8 +6271,8 @@
         <v>195</v>
       </c>
       <c r="G195" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>RESISTORS,20R 1% 0805 SMD,195</v>
+        <f t="shared" si="2"/>
+        <v>RESISTORS,13R 1% 0805 SMD,195</v>
       </c>
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.3">
@@ -6278,7 +6280,7 @@
         <v>202</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C196" s="15" t="s">
         <v>547</v>
@@ -6290,8 +6292,8 @@
         <v>196</v>
       </c>
       <c r="G196" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>RESISTORS,30R 1% 0805 SMD,196</v>
+        <f t="shared" si="2"/>
+        <v>RESISTORS,15R 1% 0805 SMD,196</v>
       </c>
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,7 +6301,7 @@
         <v>202</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>51</v>
+        <v>435</v>
       </c>
       <c r="C197" s="15" t="s">
         <v>547</v>
@@ -6311,16 +6313,17 @@
         <v>197</v>
       </c>
       <c r="G197" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>RESISTORS,33R 1% 0805 SMD,197</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>RESISTORS,16R 1% 0805 SMD,197</v>
+      </c>
+      <c r="Q197" s="8"/>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>436</v>
+        <v>46</v>
       </c>
       <c r="C198" s="15" t="s">
         <v>547</v>
@@ -6332,8 +6335,8 @@
         <v>198</v>
       </c>
       <c r="G198" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>RESISTORS,36R 1% 0805 SMD,198</v>
+        <f t="shared" ref="G198:G261" si="3">_xlfn.CONCAT(A198,",",B198," ", C198, " ",D198,",",E198)</f>
+        <v>RESISTORS,18R 1% 0805 SMD,198</v>
       </c>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.3">
@@ -6341,7 +6344,7 @@
         <v>202</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>437</v>
+        <v>47</v>
       </c>
       <c r="C199" s="15" t="s">
         <v>547</v>
@@ -6354,7 +6357,7 @@
       </c>
       <c r="G199" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,39R 1% 0805 SMD,199</v>
+        <v>RESISTORS,20R 1% 0805 SMD,199</v>
       </c>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.3">
@@ -6362,7 +6365,7 @@
         <v>202</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C200" s="15" t="s">
         <v>547</v>
@@ -6375,7 +6378,7 @@
       </c>
       <c r="G200" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,43R 1% 0805 SMD,200</v>
+        <v>RESISTORS,30R 1% 0805 SMD,200</v>
       </c>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,7 +6386,7 @@
         <v>202</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C201" s="15" t="s">
         <v>547</v>
@@ -6396,7 +6399,7 @@
       </c>
       <c r="G201" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,47R 1% 0805 SMD,201</v>
+        <v>RESISTORS,33R 1% 0805 SMD,201</v>
       </c>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.3">
@@ -6404,7 +6407,7 @@
         <v>202</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>54</v>
+        <v>436</v>
       </c>
       <c r="C202" s="15" t="s">
         <v>547</v>
@@ -6417,7 +6420,7 @@
       </c>
       <c r="G202" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,51R 1% 0805 SMD,202</v>
+        <v>RESISTORS,36R 1% 0805 SMD,202</v>
       </c>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.3">
@@ -6425,7 +6428,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>55</v>
+        <v>437</v>
       </c>
       <c r="C203" s="15" t="s">
         <v>547</v>
@@ -6438,16 +6441,15 @@
       </c>
       <c r="G203" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,56R 1% 0805 SMD,203</v>
-      </c>
-      <c r="Q203" s="8"/>
+        <v>RESISTORS,39R 1% 0805 SMD,203</v>
+      </c>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>438</v>
+        <v>52</v>
       </c>
       <c r="C204" s="15" t="s">
         <v>547</v>
@@ -6460,7 +6462,7 @@
       </c>
       <c r="G204" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,62R 1% 0805 SMD,204</v>
+        <v>RESISTORS,43R 1% 0805 SMD,204</v>
       </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,7 +6470,7 @@
         <v>202</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C205" s="15" t="s">
         <v>547</v>
@@ -6481,7 +6483,7 @@
       </c>
       <c r="G205" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,68R 1% 0805 SMD,205</v>
+        <v>RESISTORS,47R 1% 0805 SMD,205</v>
       </c>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,7 +6491,7 @@
         <v>202</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C206" s="15" t="s">
         <v>547</v>
@@ -6502,7 +6504,7 @@
       </c>
       <c r="G206" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,100R 1% 0805 SMD,206</v>
+        <v>RESISTORS,51R 1% 0805 SMD,206</v>
       </c>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,7 +6512,7 @@
         <v>202</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>439</v>
+        <v>55</v>
       </c>
       <c r="C207" s="15" t="s">
         <v>547</v>
@@ -6523,15 +6525,16 @@
       </c>
       <c r="G207" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,110R 1% 0805 SMD,207</v>
-      </c>
+        <v>RESISTORS,56R 1% 0805 SMD,207</v>
+      </c>
+      <c r="Q207" s="8"/>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>61</v>
+        <v>438</v>
       </c>
       <c r="C208" s="15" t="s">
         <v>547</v>
@@ -6544,7 +6547,7 @@
       </c>
       <c r="G208" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,120R 1% 0805 SMD,208</v>
+        <v>RESISTORS,62R 1% 0805 SMD,208</v>
       </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.3">
@@ -6552,7 +6555,7 @@
         <v>202</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>440</v>
+        <v>56</v>
       </c>
       <c r="C209" s="15" t="s">
         <v>547</v>
@@ -6565,7 +6568,7 @@
       </c>
       <c r="G209" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,130R 1% 0805 SMD,209</v>
+        <v>RESISTORS,68R 1% 0805 SMD,209</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.3">
@@ -6573,7 +6576,7 @@
         <v>202</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C210" s="15" t="s">
         <v>547</v>
@@ -6586,7 +6589,7 @@
       </c>
       <c r="G210" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,150R 1% 0805 SMD,210</v>
+        <v>RESISTORS,100R 1% 0805 SMD,210</v>
       </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.3">
@@ -6594,7 +6597,7 @@
         <v>202</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C211" s="15" t="s">
         <v>547</v>
@@ -6607,7 +6610,7 @@
       </c>
       <c r="G211" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,160R 1% 0805 SMD,211</v>
+        <v>RESISTORS,110R 1% 0805 SMD,211</v>
       </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.3">
@@ -6615,7 +6618,7 @@
         <v>202</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C212" s="15" t="s">
         <v>547</v>
@@ -6628,7 +6631,7 @@
       </c>
       <c r="G212" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,180R 1% 0805 SMD,212</v>
+        <v>RESISTORS,120R 1% 0805 SMD,212</v>
       </c>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.3">
@@ -6636,7 +6639,7 @@
         <v>202</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>64</v>
+        <v>440</v>
       </c>
       <c r="C213" s="15" t="s">
         <v>547</v>
@@ -6649,16 +6652,15 @@
       </c>
       <c r="G213" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,200R 1% 0805 SMD,213</v>
-      </c>
-      <c r="Q213" s="8"/>
+        <v>RESISTORS,130R 1% 0805 SMD,213</v>
+      </c>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C214" s="15" t="s">
         <v>547</v>
@@ -6671,7 +6673,7 @@
       </c>
       <c r="G214" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,220R 1% 0805 SMD,214</v>
+        <v>RESISTORS,150R 1% 0805 SMD,214</v>
       </c>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,7 +6681,7 @@
         <v>202</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C215" s="15" t="s">
         <v>547</v>
@@ -6692,7 +6694,7 @@
       </c>
       <c r="G215" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,240R 1% 0805 SMD,215</v>
+        <v>RESISTORS,160R 1% 0805 SMD,215</v>
       </c>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,7 +6702,7 @@
         <v>202</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C216" s="15" t="s">
         <v>547</v>
@@ -6713,7 +6715,7 @@
       </c>
       <c r="G216" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,270R 1% 0805 SMD,216</v>
+        <v>RESISTORS,180R 1% 0805 SMD,216</v>
       </c>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,7 +6723,7 @@
         <v>202</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C217" s="15" t="s">
         <v>547</v>
@@ -6734,15 +6736,16 @@
       </c>
       <c r="G217" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,300R 1% 0805 SMD,217</v>
-      </c>
+        <v>RESISTORS,200R 1% 0805 SMD,217</v>
+      </c>
+      <c r="Q217" s="8"/>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C218" s="15" t="s">
         <v>547</v>
@@ -6755,7 +6758,7 @@
       </c>
       <c r="G218" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,330R 1% 0805 SMD,218</v>
+        <v>RESISTORS,220R 1% 0805 SMD,218</v>
       </c>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,7 +6766,7 @@
         <v>202</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>69</v>
+        <v>442</v>
       </c>
       <c r="C219" s="15" t="s">
         <v>547</v>
@@ -6776,7 +6779,7 @@
       </c>
       <c r="G219" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,360R 1% 0805 SMD,219</v>
+        <v>RESISTORS,240R 1% 0805 SMD,219</v>
       </c>
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,7 +6787,7 @@
         <v>202</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C220" s="15" t="s">
         <v>547</v>
@@ -6797,7 +6800,7 @@
       </c>
       <c r="G220" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,390R 1% 0805 SMD,220</v>
+        <v>RESISTORS,270R 1% 0805 SMD,220</v>
       </c>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,7 +6808,7 @@
         <v>202</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C221" s="15" t="s">
         <v>547</v>
@@ -6818,16 +6821,15 @@
       </c>
       <c r="G221" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,430R 1% 0805 SMD,221</v>
-      </c>
-      <c r="Q221" s="8"/>
+        <v>RESISTORS,300R 1% 0805 SMD,221</v>
+      </c>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C222" s="15" t="s">
         <v>547</v>
@@ -6840,7 +6842,7 @@
       </c>
       <c r="G222" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,470R 1% 0805 SMD,222</v>
+        <v>RESISTORS,330R 1% 0805 SMD,222</v>
       </c>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.3">
@@ -6848,7 +6850,7 @@
         <v>202</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C223" s="15" t="s">
         <v>547</v>
@@ -6861,7 +6863,7 @@
       </c>
       <c r="G223" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,510R 1% 0805 SMD,223</v>
+        <v>RESISTORS,360R 1% 0805 SMD,223</v>
       </c>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.3">
@@ -6869,7 +6871,7 @@
         <v>202</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C224" s="15" t="s">
         <v>547</v>
@@ -6882,7 +6884,7 @@
       </c>
       <c r="G224" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,560R 1% 0805 SMD,224</v>
+        <v>RESISTORS,390R 1% 0805 SMD,224</v>
       </c>
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.3">
@@ -6890,7 +6892,7 @@
         <v>202</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>443</v>
+        <v>71</v>
       </c>
       <c r="C225" s="15" t="s">
         <v>547</v>
@@ -6903,15 +6905,16 @@
       </c>
       <c r="G225" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,620R 1% 0805 SMD,225</v>
-      </c>
+        <v>RESISTORS,430R 1% 0805 SMD,225</v>
+      </c>
+      <c r="Q225" s="8"/>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C226" s="15" t="s">
         <v>547</v>
@@ -6924,7 +6927,7 @@
       </c>
       <c r="G226" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,680R 1% 0805 SMD,226</v>
+        <v>RESISTORS,470R 1% 0805 SMD,226</v>
       </c>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.3">
@@ -6932,7 +6935,7 @@
         <v>202</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C227" s="15" t="s">
         <v>547</v>
@@ -6945,7 +6948,7 @@
       </c>
       <c r="G227" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,750R 1% 0805 SMD,227</v>
+        <v>RESISTORS,510R 1% 0805 SMD,227</v>
       </c>
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.3">
@@ -6953,7 +6956,7 @@
         <v>202</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C228" s="15" t="s">
         <v>547</v>
@@ -6966,7 +6969,7 @@
       </c>
       <c r="G228" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,820R 1% 0805 SMD,228</v>
+        <v>RESISTORS,560R 1% 0805 SMD,228</v>
       </c>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,7 +6977,7 @@
         <v>202</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C229" s="15" t="s">
         <v>547</v>
@@ -6987,16 +6990,15 @@
       </c>
       <c r="G229" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,910R 1% 0805 SMD,229</v>
-      </c>
-      <c r="Q229" s="8"/>
+        <v>RESISTORS,620R 1% 0805 SMD,229</v>
+      </c>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C230" s="15" t="s">
         <v>547</v>
@@ -7009,7 +7011,7 @@
       </c>
       <c r="G230" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,1k 1% 0805 SMD,230</v>
+        <v>RESISTORS,680R 1% 0805 SMD,230</v>
       </c>
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.3">
@@ -7017,7 +7019,7 @@
         <v>202</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>392</v>
+        <v>76</v>
       </c>
       <c r="C231" s="15" t="s">
         <v>547</v>
@@ -7030,7 +7032,7 @@
       </c>
       <c r="G231" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,1.1k 1% 0805 SMD,231</v>
+        <v>RESISTORS,750R 1% 0805 SMD,231</v>
       </c>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,7 +7040,7 @@
         <v>202</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C232" s="15" t="s">
         <v>547</v>
@@ -7051,7 +7053,7 @@
       </c>
       <c r="G232" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,1.2k 1% 0805 SMD,232</v>
+        <v>RESISTORS,820R 1% 0805 SMD,232</v>
       </c>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,7 +7061,7 @@
         <v>202</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="C233" s="15" t="s">
         <v>547</v>
@@ -7072,15 +7074,16 @@
       </c>
       <c r="G233" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,1.3k 1% 0805 SMD,233</v>
-      </c>
+        <v>RESISTORS,910R 1% 0805 SMD,233</v>
+      </c>
+      <c r="Q233" s="8"/>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C234" s="15" t="s">
         <v>547</v>
@@ -7093,7 +7096,7 @@
       </c>
       <c r="G234" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,1.5k 1% 0805 SMD,234</v>
+        <v>RESISTORS,1k 1% 0805 SMD,234</v>
       </c>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,7 +7104,7 @@
         <v>202</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C235" s="15" t="s">
         <v>547</v>
@@ -7114,7 +7117,7 @@
       </c>
       <c r="G235" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,1.6k 1% 0805 SMD,235</v>
+        <v>RESISTORS,1.1k 1% 0805 SMD,235</v>
       </c>
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.3">
@@ -7122,7 +7125,7 @@
         <v>202</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C236" s="15" t="s">
         <v>547</v>
@@ -7135,7 +7138,7 @@
       </c>
       <c r="G236" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,1.8k 1% 0805 SMD,236</v>
+        <v>RESISTORS,1.2k 1% 0805 SMD,236</v>
       </c>
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,7 +7146,7 @@
         <v>202</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="C237" s="15" t="s">
         <v>547</v>
@@ -7156,16 +7159,15 @@
       </c>
       <c r="G237" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,2k 1% 0805 SMD,237</v>
-      </c>
-      <c r="Q237" s="8"/>
+        <v>RESISTORS,1.3k 1% 0805 SMD,237</v>
+      </c>
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C238" s="15" t="s">
         <v>547</v>
@@ -7178,16 +7180,15 @@
       </c>
       <c r="G238" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,2.2k 1% 0805 SMD,238</v>
-      </c>
-      <c r="Q238" s="8"/>
+        <v>RESISTORS,1.5k 1% 0805 SMD,238</v>
+      </c>
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>84</v>
+        <v>394</v>
       </c>
       <c r="C239" s="15" t="s">
         <v>547</v>
@@ -7200,7 +7201,7 @@
       </c>
       <c r="G239" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,2.4k 1% 0805 SMD,239</v>
+        <v>RESISTORS,1.6k 1% 0805 SMD,239</v>
       </c>
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.3">
@@ -7208,7 +7209,7 @@
         <v>202</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C240" s="15" t="s">
         <v>547</v>
@@ -7221,7 +7222,7 @@
       </c>
       <c r="G240" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,2.7k 1% 0805 SMD,240</v>
+        <v>RESISTORS,1.8k 1% 0805 SMD,240</v>
       </c>
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.3">
@@ -7229,7 +7230,7 @@
         <v>202</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C241" s="15" t="s">
         <v>547</v>
@@ -7242,15 +7243,16 @@
       </c>
       <c r="G241" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,3k 1% 0805 SMD,241</v>
-      </c>
+        <v>RESISTORS,2k 1% 0805 SMD,241</v>
+      </c>
+      <c r="Q241" s="8"/>
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C242" s="15" t="s">
         <v>547</v>
@@ -7263,15 +7265,16 @@
       </c>
       <c r="G242" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,3.3k 1% 0805 SMD,242</v>
-      </c>
+        <v>RESISTORS,2.2k 1% 0805 SMD,242</v>
+      </c>
+      <c r="Q242" s="8"/>
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>395</v>
+        <v>84</v>
       </c>
       <c r="C243" s="15" t="s">
         <v>547</v>
@@ -7284,7 +7287,7 @@
       </c>
       <c r="G243" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,3.6k 1% 0805 SMD,243</v>
+        <v>RESISTORS,2.4k 1% 0805 SMD,243</v>
       </c>
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.3">
@@ -7292,7 +7295,7 @@
         <v>202</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>396</v>
+        <v>85</v>
       </c>
       <c r="C244" s="15" t="s">
         <v>547</v>
@@ -7305,7 +7308,7 @@
       </c>
       <c r="G244" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,3.9k 1% 0805 SMD,244</v>
+        <v>RESISTORS,2.7k 1% 0805 SMD,244</v>
       </c>
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,7 +7316,7 @@
         <v>202</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C245" s="15" t="s">
         <v>547</v>
@@ -7326,7 +7329,7 @@
       </c>
       <c r="G245" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,4.3k 1% 0805 SMD,245</v>
+        <v>RESISTORS,3k 1% 0805 SMD,245</v>
       </c>
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,7 +7337,7 @@
         <v>202</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C246" s="15" t="s">
         <v>547</v>
@@ -7347,16 +7350,15 @@
       </c>
       <c r="G246" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,4.7k 1% 0805 SMD,246</v>
-      </c>
-      <c r="Q246" s="8"/>
+        <v>RESISTORS,3.3k 1% 0805 SMD,246</v>
+      </c>
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>90</v>
+        <v>395</v>
       </c>
       <c r="C247" s="15" t="s">
         <v>547</v>
@@ -7369,7 +7371,7 @@
       </c>
       <c r="G247" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,5.1k 1% 0805 SMD,247</v>
+        <v>RESISTORS,3.6k 1% 0805 SMD,247</v>
       </c>
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.3">
@@ -7377,7 +7379,7 @@
         <v>202</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>91</v>
+        <v>396</v>
       </c>
       <c r="C248" s="15" t="s">
         <v>547</v>
@@ -7390,7 +7392,7 @@
       </c>
       <c r="G248" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,5.6k 1% 0805 SMD,248</v>
+        <v>RESISTORS,3.9k 1% 0805 SMD,248</v>
       </c>
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.3">
@@ -7398,7 +7400,7 @@
         <v>202</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>397</v>
+        <v>88</v>
       </c>
       <c r="C249" s="15" t="s">
         <v>547</v>
@@ -7411,7 +7413,7 @@
       </c>
       <c r="G249" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,6.2k 1% 0805 SMD,249</v>
+        <v>RESISTORS,4.3k 1% 0805 SMD,249</v>
       </c>
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.3">
@@ -7419,7 +7421,7 @@
         <v>202</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C250" s="15" t="s">
         <v>547</v>
@@ -7432,15 +7434,16 @@
       </c>
       <c r="G250" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,6.8k 1% 0805 SMD,250</v>
-      </c>
+        <v>RESISTORS,4.7k 1% 0805 SMD,250</v>
+      </c>
+      <c r="Q250" s="8"/>
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C251" s="15" t="s">
         <v>547</v>
@@ -7453,7 +7456,7 @@
       </c>
       <c r="G251" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,7.5k 1% 0805 SMD,251</v>
+        <v>RESISTORS,5.1k 1% 0805 SMD,251</v>
       </c>
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.3">
@@ -7461,7 +7464,7 @@
         <v>202</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C252" s="15" t="s">
         <v>547</v>
@@ -7474,7 +7477,7 @@
       </c>
       <c r="G252" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,8.2k 1% 0805 SMD,252</v>
+        <v>RESISTORS,5.6k 1% 0805 SMD,252</v>
       </c>
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.3">
@@ -7482,7 +7485,7 @@
         <v>202</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>95</v>
+        <v>397</v>
       </c>
       <c r="C253" s="15" t="s">
         <v>547</v>
@@ -7495,7 +7498,7 @@
       </c>
       <c r="G253" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,9.1k 1% 0805 SMD,253</v>
+        <v>RESISTORS,6.2k 1% 0805 SMD,253</v>
       </c>
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.3">
@@ -7503,7 +7506,7 @@
         <v>202</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C254" s="15" t="s">
         <v>547</v>
@@ -7516,16 +7519,15 @@
       </c>
       <c r="G254" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,10k 1% 0805 SMD,254</v>
-      </c>
-      <c r="Q254" s="8"/>
+        <v>RESISTORS,6.8k 1% 0805 SMD,254</v>
+      </c>
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>398</v>
+        <v>93</v>
       </c>
       <c r="C255" s="15" t="s">
         <v>547</v>
@@ -7538,7 +7540,7 @@
       </c>
       <c r="G255" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,11k 1% 0805 SMD,255</v>
+        <v>RESISTORS,7.5k 1% 0805 SMD,255</v>
       </c>
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.3">
@@ -7546,7 +7548,7 @@
         <v>202</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C256" s="15" t="s">
         <v>547</v>
@@ -7559,7 +7561,7 @@
       </c>
       <c r="G256" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,12k 1% 0805 SMD,256</v>
+        <v>RESISTORS,8.2k 1% 0805 SMD,256</v>
       </c>
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.3">
@@ -7567,7 +7569,7 @@
         <v>202</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>399</v>
+        <v>95</v>
       </c>
       <c r="C257" s="15" t="s">
         <v>547</v>
@@ -7580,7 +7582,7 @@
       </c>
       <c r="G257" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>RESISTORS,13k 1% 0805 SMD,257</v>
+        <v>RESISTORS,9.1k 1% 0805 SMD,257</v>
       </c>
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.3">
@@ -7588,7 +7590,7 @@
         <v>202</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C258" s="15" t="s">
         <v>547</v>
@@ -7600,16 +7602,17 @@
         <v>258</v>
       </c>
       <c r="G258" s="1" t="str">
-        <f t="shared" ref="G258:G321" si="4">_xlfn.CONCAT(A258,",",B258," ", C258, " ",D258,",",E258)</f>
-        <v>RESISTORS,15k 1% 0805 SMD,258</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>RESISTORS,10k 1% 0805 SMD,258</v>
+      </c>
+      <c r="Q258" s="8"/>
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C259" s="15" t="s">
         <v>547</v>
@@ -7621,8 +7624,8 @@
         <v>259</v>
       </c>
       <c r="G259" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>RESISTORS,16k 1% 0805 SMD,259</v>
+        <f t="shared" si="3"/>
+        <v>RESISTORS,11k 1% 0805 SMD,259</v>
       </c>
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.3">
@@ -7630,7 +7633,7 @@
         <v>202</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C260" s="15" t="s">
         <v>547</v>
@@ -7642,8 +7645,8 @@
         <v>260</v>
       </c>
       <c r="G260" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>RESISTORS,18k 1% 0805 SMD,260</v>
+        <f t="shared" si="3"/>
+        <v>RESISTORS,12k 1% 0805 SMD,260</v>
       </c>
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.3">
@@ -7651,7 +7654,7 @@
         <v>202</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>100</v>
+        <v>399</v>
       </c>
       <c r="C261" s="15" t="s">
         <v>547</v>
@@ -7663,8 +7666,8 @@
         <v>261</v>
       </c>
       <c r="G261" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>RESISTORS,20k 1% 0805 SMD,261</v>
+        <f t="shared" si="3"/>
+        <v>RESISTORS,13k 1% 0805 SMD,261</v>
       </c>
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.3">
@@ -7672,7 +7675,7 @@
         <v>202</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C262" s="15" t="s">
         <v>547</v>
@@ -7684,17 +7687,16 @@
         <v>262</v>
       </c>
       <c r="G262" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>RESISTORS,22k 1% 0805 SMD,262</v>
-      </c>
-      <c r="Q262" s="8"/>
+        <f t="shared" ref="G262:G325" si="4">_xlfn.CONCAT(A262,",",B262," ", C262, " ",D262,",",E262)</f>
+        <v>RESISTORS,15k 1% 0805 SMD,262</v>
+      </c>
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C263" s="15" t="s">
         <v>547</v>
@@ -7707,7 +7709,7 @@
       </c>
       <c r="G263" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,24k 1% 0805 SMD,263</v>
+        <v>RESISTORS,16k 1% 0805 SMD,263</v>
       </c>
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.3">
@@ -7715,7 +7717,7 @@
         <v>202</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C264" s="15" t="s">
         <v>547</v>
@@ -7728,7 +7730,7 @@
       </c>
       <c r="G264" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,27k 1% 0805 SMD,264</v>
+        <v>RESISTORS,18k 1% 0805 SMD,264</v>
       </c>
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.3">
@@ -7736,7 +7738,7 @@
         <v>202</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C265" s="15" t="s">
         <v>547</v>
@@ -7749,7 +7751,7 @@
       </c>
       <c r="G265" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,30k 1% 0805 SMD,265</v>
+        <v>RESISTORS,20k 1% 0805 SMD,265</v>
       </c>
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.3">
@@ -7757,7 +7759,7 @@
         <v>202</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C266" s="15" t="s">
         <v>547</v>
@@ -7770,15 +7772,16 @@
       </c>
       <c r="G266" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,33k 1% 0805 SMD,266</v>
-      </c>
+        <v>RESISTORS,22k 1% 0805 SMD,266</v>
+      </c>
+      <c r="Q266" s="8"/>
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>105</v>
+        <v>401</v>
       </c>
       <c r="C267" s="15" t="s">
         <v>547</v>
@@ -7791,7 +7794,7 @@
       </c>
       <c r="G267" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,36k 1% 0805 SMD,267</v>
+        <v>RESISTORS,24k 1% 0805 SMD,267</v>
       </c>
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,7 +7802,7 @@
         <v>202</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C268" s="15" t="s">
         <v>547</v>
@@ -7812,7 +7815,7 @@
       </c>
       <c r="G268" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,39k 1% 0805 SMD,268</v>
+        <v>RESISTORS,27k 1% 0805 SMD,268</v>
       </c>
     </row>
     <row r="269" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,7 +7823,7 @@
         <v>202</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C269" s="15" t="s">
         <v>547</v>
@@ -7833,7 +7836,7 @@
       </c>
       <c r="G269" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,43k 1% 0805 SMD,269</v>
+        <v>RESISTORS,30k 1% 0805 SMD,269</v>
       </c>
     </row>
     <row r="270" spans="1:17" x14ac:dyDescent="0.3">
@@ -7841,7 +7844,7 @@
         <v>202</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C270" s="15" t="s">
         <v>547</v>
@@ -7854,7 +7857,7 @@
       </c>
       <c r="G270" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,47k 1% 0805 SMD,270</v>
+        <v>RESISTORS,33k 1% 0805 SMD,270</v>
       </c>
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,7 +7865,7 @@
         <v>202</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C271" s="15" t="s">
         <v>547</v>
@@ -7875,7 +7878,7 @@
       </c>
       <c r="G271" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,51k 1% 0805 SMD,271</v>
+        <v>RESISTORS,36k 1% 0805 SMD,271</v>
       </c>
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.3">
@@ -7883,7 +7886,7 @@
         <v>202</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C272" s="15" t="s">
         <v>547</v>
@@ -7896,7 +7899,7 @@
       </c>
       <c r="G272" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,56k 1% 0805 SMD,272</v>
+        <v>RESISTORS,39k 1% 0805 SMD,272</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
@@ -7904,7 +7907,7 @@
         <v>202</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>402</v>
+        <v>107</v>
       </c>
       <c r="C273" s="15" t="s">
         <v>547</v>
@@ -7917,7 +7920,7 @@
       </c>
       <c r="G273" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,62k 1% 0805 SMD,273</v>
+        <v>RESISTORS,43k 1% 0805 SMD,273</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
@@ -7925,7 +7928,7 @@
         <v>202</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C274" s="15" t="s">
         <v>547</v>
@@ -7938,7 +7941,7 @@
       </c>
       <c r="G274" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,68k 1% 0805 SMD,274</v>
+        <v>RESISTORS,47k 1% 0805 SMD,274</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
@@ -7946,7 +7949,7 @@
         <v>202</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C275" s="15" t="s">
         <v>547</v>
@@ -7959,7 +7962,7 @@
       </c>
       <c r="G275" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,75k 1% 0805 SMD,275</v>
+        <v>RESISTORS,51k 1% 0805 SMD,275</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
@@ -7967,7 +7970,7 @@
         <v>202</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C276" s="15" t="s">
         <v>547</v>
@@ -7980,7 +7983,7 @@
       </c>
       <c r="G276" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,82k 1% 0805 SMD,276</v>
+        <v>RESISTORS,56k 1% 0805 SMD,276</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
@@ -7988,7 +7991,7 @@
         <v>202</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>114</v>
+        <v>402</v>
       </c>
       <c r="C277" s="15" t="s">
         <v>547</v>
@@ -8001,7 +8004,7 @@
       </c>
       <c r="G277" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,91k 1% 0805 SMD,277</v>
+        <v>RESISTORS,62k 1% 0805 SMD,277</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
@@ -8009,7 +8012,7 @@
         <v>202</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C278" s="15" t="s">
         <v>547</v>
@@ -8022,7 +8025,7 @@
       </c>
       <c r="G278" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,100k 1% 0805 SMD,278</v>
+        <v>RESISTORS,68k 1% 0805 SMD,278</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
@@ -8030,7 +8033,7 @@
         <v>202</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>403</v>
+        <v>112</v>
       </c>
       <c r="C279" s="15" t="s">
         <v>547</v>
@@ -8043,7 +8046,7 @@
       </c>
       <c r="G279" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,110k 1% 0805 SMD,279</v>
+        <v>RESISTORS,75k 1% 0805 SMD,279</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
@@ -8051,7 +8054,7 @@
         <v>202</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C280" s="15" t="s">
         <v>547</v>
@@ -8064,7 +8067,7 @@
       </c>
       <c r="G280" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,120k 1% 0805 SMD,280</v>
+        <v>RESISTORS,82k 1% 0805 SMD,280</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
@@ -8072,7 +8075,7 @@
         <v>202</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>404</v>
+        <v>114</v>
       </c>
       <c r="C281" s="15" t="s">
         <v>547</v>
@@ -8085,7 +8088,7 @@
       </c>
       <c r="G281" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,130k 1% 0805 SMD,281</v>
+        <v>RESISTORS,91k 1% 0805 SMD,281</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
@@ -8093,7 +8096,7 @@
         <v>202</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C282" s="15" t="s">
         <v>547</v>
@@ -8106,7 +8109,7 @@
       </c>
       <c r="G282" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,150k 1% 0805 SMD,282</v>
+        <v>RESISTORS,100k 1% 0805 SMD,282</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
@@ -8114,7 +8117,7 @@
         <v>202</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C283" s="15" t="s">
         <v>547</v>
@@ -8127,7 +8130,7 @@
       </c>
       <c r="G283" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,160k 1% 0805 SMD,283</v>
+        <v>RESISTORS,110k 1% 0805 SMD,283</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
@@ -8135,7 +8138,7 @@
         <v>202</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C284" s="15" t="s">
         <v>547</v>
@@ -8148,7 +8151,7 @@
       </c>
       <c r="G284" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,180k 1% 0805 SMD,284</v>
+        <v>RESISTORS,120k 1% 0805 SMD,284</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
@@ -8156,7 +8159,7 @@
         <v>202</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>119</v>
+        <v>404</v>
       </c>
       <c r="C285" s="15" t="s">
         <v>547</v>
@@ -8169,7 +8172,7 @@
       </c>
       <c r="G285" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,200k 1% 0805 SMD,285</v>
+        <v>RESISTORS,130k 1% 0805 SMD,285</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
@@ -8177,7 +8180,7 @@
         <v>202</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C286" s="15" t="s">
         <v>547</v>
@@ -8190,7 +8193,7 @@
       </c>
       <c r="G286" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,220k 1% 0805 SMD,286</v>
+        <v>RESISTORS,150k 1% 0805 SMD,286</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
@@ -8198,7 +8201,7 @@
         <v>202</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C287" s="15" t="s">
         <v>547</v>
@@ -8211,7 +8214,7 @@
       </c>
       <c r="G287" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,240k 1% 0805 SMD,287</v>
+        <v>RESISTORS,160k 1% 0805 SMD,287</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
@@ -8219,7 +8222,7 @@
         <v>202</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C288" s="15" t="s">
         <v>547</v>
@@ -8232,7 +8235,7 @@
       </c>
       <c r="G288" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,270k 1% 0805 SMD,288</v>
+        <v>RESISTORS,180k 1% 0805 SMD,288</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
@@ -8240,7 +8243,7 @@
         <v>202</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C289" s="15" t="s">
         <v>547</v>
@@ -8253,7 +8256,7 @@
       </c>
       <c r="G289" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,300k 1% 0805 SMD,289</v>
+        <v>RESISTORS,200k 1% 0805 SMD,289</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
@@ -8261,7 +8264,7 @@
         <v>202</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C290" s="15" t="s">
         <v>547</v>
@@ -8274,7 +8277,7 @@
       </c>
       <c r="G290" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,330k 1% 0805 SMD,290</v>
+        <v>RESISTORS,220k 1% 0805 SMD,290</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
@@ -8282,7 +8285,7 @@
         <v>202</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C291" s="15" t="s">
         <v>547</v>
@@ -8295,7 +8298,7 @@
       </c>
       <c r="G291" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,360k 1% 0805 SMD,291</v>
+        <v>RESISTORS,240k 1% 0805 SMD,291</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
@@ -8303,7 +8306,7 @@
         <v>202</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C292" s="15" t="s">
         <v>547</v>
@@ -8316,7 +8319,7 @@
       </c>
       <c r="G292" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,390k 1% 0805 SMD,292</v>
+        <v>RESISTORS,270k 1% 0805 SMD,292</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
@@ -8324,7 +8327,7 @@
         <v>202</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C293" s="15" t="s">
         <v>547</v>
@@ -8337,7 +8340,7 @@
       </c>
       <c r="G293" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,430k 1% 0805 SMD,293</v>
+        <v>RESISTORS,300k 1% 0805 SMD,293</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
@@ -8345,7 +8348,7 @@
         <v>202</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C294" s="15" t="s">
         <v>547</v>
@@ -8358,7 +8361,7 @@
       </c>
       <c r="G294" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,470k 1% 0805 SMD,294</v>
+        <v>RESISTORS,330k 1% 0805 SMD,294</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
@@ -8366,7 +8369,7 @@
         <v>202</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>127</v>
+        <v>407</v>
       </c>
       <c r="C295" s="15" t="s">
         <v>547</v>
@@ -8379,7 +8382,7 @@
       </c>
       <c r="G295" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,510k 1% 0805 SMD,295</v>
+        <v>RESISTORS,360k 1% 0805 SMD,295</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
@@ -8387,7 +8390,7 @@
         <v>202</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C296" s="15" t="s">
         <v>547</v>
@@ -8400,7 +8403,7 @@
       </c>
       <c r="G296" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,560k 1% 0805 SMD,296</v>
+        <v>RESISTORS,390k 1% 0805 SMD,296</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
@@ -8408,7 +8411,7 @@
         <v>202</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>408</v>
+        <v>125</v>
       </c>
       <c r="C297" s="15" t="s">
         <v>547</v>
@@ -8421,7 +8424,7 @@
       </c>
       <c r="G297" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,620k 1% 0805 SMD,297</v>
+        <v>RESISTORS,430k 1% 0805 SMD,297</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
@@ -8429,7 +8432,7 @@
         <v>202</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C298" s="15" t="s">
         <v>547</v>
@@ -8442,7 +8445,7 @@
       </c>
       <c r="G298" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,680k 1% 0805 SMD,298</v>
+        <v>RESISTORS,470k 1% 0805 SMD,298</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
@@ -8450,7 +8453,7 @@
         <v>202</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>409</v>
+        <v>127</v>
       </c>
       <c r="C299" s="15" t="s">
         <v>547</v>
@@ -8463,7 +8466,7 @@
       </c>
       <c r="G299" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,750k 1% 0805 SMD,299</v>
+        <v>RESISTORS,510k 1% 0805 SMD,299</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
@@ -8471,7 +8474,7 @@
         <v>202</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C300" s="15" t="s">
         <v>547</v>
@@ -8484,7 +8487,7 @@
       </c>
       <c r="G300" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,820k 1% 0805 SMD,300</v>
+        <v>RESISTORS,560k 1% 0805 SMD,300</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
@@ -8492,7 +8495,7 @@
         <v>202</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="C301" s="15" t="s">
         <v>547</v>
@@ -8505,7 +8508,7 @@
       </c>
       <c r="G301" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,910K 1% 0805 SMD,301</v>
+        <v>RESISTORS,620k 1% 0805 SMD,301</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.3">
@@ -8513,7 +8516,7 @@
         <v>202</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C302" s="15" t="s">
         <v>547</v>
@@ -8526,7 +8529,7 @@
       </c>
       <c r="G302" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,1M 1% 0805 SMD,302</v>
+        <v>RESISTORS,680k 1% 0805 SMD,302</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.3">
@@ -8534,7 +8537,7 @@
         <v>202</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C303" s="15" t="s">
         <v>547</v>
@@ -8547,7 +8550,7 @@
       </c>
       <c r="G303" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,1.1M 1% 0805 SMD,303</v>
+        <v>RESISTORS,750k 1% 0805 SMD,303</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
@@ -8555,7 +8558,7 @@
         <v>202</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>411</v>
+        <v>130</v>
       </c>
       <c r="C304" s="15" t="s">
         <v>547</v>
@@ -8568,7 +8571,7 @@
       </c>
       <c r="G304" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,1.2M 1% 0805 SMD,304</v>
+        <v>RESISTORS,820k 1% 0805 SMD,304</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
@@ -8576,7 +8579,7 @@
         <v>202</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="C305" s="15" t="s">
         <v>547</v>
@@ -8589,7 +8592,7 @@
       </c>
       <c r="G305" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,1.3M 1% 0805 SMD,305</v>
+        <v>RESISTORS,910K 1% 0805 SMD,305</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
@@ -8597,7 +8600,7 @@
         <v>202</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>413</v>
+        <v>131</v>
       </c>
       <c r="C306" s="15" t="s">
         <v>547</v>
@@ -8610,7 +8613,7 @@
       </c>
       <c r="G306" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,1.5M 1% 0805 SMD,306</v>
+        <v>RESISTORS,1M 1% 0805 SMD,306</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
@@ -8618,7 +8621,7 @@
         <v>202</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C307" s="15" t="s">
         <v>547</v>
@@ -8631,7 +8634,7 @@
       </c>
       <c r="G307" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,1.6M 1% 0805 SMD,307</v>
+        <v>RESISTORS,1.1M 1% 0805 SMD,307</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
@@ -8639,7 +8642,7 @@
         <v>202</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C308" s="15" t="s">
         <v>547</v>
@@ -8652,7 +8655,7 @@
       </c>
       <c r="G308" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,1.8M 1% 0805 SMD,308</v>
+        <v>RESISTORS,1.2M 1% 0805 SMD,308</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
@@ -8660,7 +8663,7 @@
         <v>202</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>132</v>
+        <v>412</v>
       </c>
       <c r="C309" s="15" t="s">
         <v>547</v>
@@ -8673,7 +8676,7 @@
       </c>
       <c r="G309" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,2M 1% 0805 SMD,309</v>
+        <v>RESISTORS,1.3M 1% 0805 SMD,309</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
@@ -8681,7 +8684,7 @@
         <v>202</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>133</v>
+        <v>413</v>
       </c>
       <c r="C310" s="15" t="s">
         <v>547</v>
@@ -8694,7 +8697,7 @@
       </c>
       <c r="G310" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,2.2M 1% 0805 SMD,310</v>
+        <v>RESISTORS,1.5M 1% 0805 SMD,310</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
@@ -8702,7 +8705,7 @@
         <v>202</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C311" s="15" t="s">
         <v>547</v>
@@ -8715,7 +8718,7 @@
       </c>
       <c r="G311" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,2.4M 1% 0805 SMD,311</v>
+        <v>RESISTORS,1.6M 1% 0805 SMD,311</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
@@ -8723,7 +8726,7 @@
         <v>202</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C312" s="15" t="s">
         <v>547</v>
@@ -8736,7 +8739,7 @@
       </c>
       <c r="G312" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,2.7M 1% 0805 SMD,312</v>
+        <v>RESISTORS,1.8M 1% 0805 SMD,312</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
@@ -8744,7 +8747,7 @@
         <v>202</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>418</v>
+        <v>132</v>
       </c>
       <c r="C313" s="15" t="s">
         <v>547</v>
@@ -8757,7 +8760,7 @@
       </c>
       <c r="G313" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,3M 1% 0805 SMD,313</v>
+        <v>RESISTORS,2M 1% 0805 SMD,313</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
@@ -8765,7 +8768,7 @@
         <v>202</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>419</v>
+        <v>133</v>
       </c>
       <c r="C314" s="15" t="s">
         <v>547</v>
@@ -8778,7 +8781,7 @@
       </c>
       <c r="G314" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,3.3M 1% 0805 SMD,314</v>
+        <v>RESISTORS,2.2M 1% 0805 SMD,314</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
@@ -8786,7 +8789,7 @@
         <v>202</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C315" s="15" t="s">
         <v>547</v>
@@ -8799,7 +8802,7 @@
       </c>
       <c r="G315" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,3.6M 1% 0805 SMD,315</v>
+        <v>RESISTORS,2.4M 1% 0805 SMD,315</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
@@ -8807,7 +8810,7 @@
         <v>202</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C316" s="15" t="s">
         <v>547</v>
@@ -8820,7 +8823,7 @@
       </c>
       <c r="G316" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,3.9M 1% 0805 SMD,316</v>
+        <v>RESISTORS,2.7M 1% 0805 SMD,316</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
@@ -8828,7 +8831,7 @@
         <v>202</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C317" s="15" t="s">
         <v>547</v>
@@ -8841,7 +8844,7 @@
       </c>
       <c r="G317" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,4.3M 1% 0805 SMD,317</v>
+        <v>RESISTORS,3M 1% 0805 SMD,317</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
@@ -8849,7 +8852,7 @@
         <v>202</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C318" s="15" t="s">
         <v>547</v>
@@ -8862,7 +8865,7 @@
       </c>
       <c r="G318" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,4.7M 1% 0805 SMD,318</v>
+        <v>RESISTORS,3.3M 1% 0805 SMD,318</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
@@ -8870,7 +8873,7 @@
         <v>202</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C319" s="15" t="s">
         <v>547</v>
@@ -8883,7 +8886,7 @@
       </c>
       <c r="G319" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,5.1M 1% 0805 SMD,319</v>
+        <v>RESISTORS,3.6M 1% 0805 SMD,319</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
@@ -8891,7 +8894,7 @@
         <v>202</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C320" s="15" t="s">
         <v>547</v>
@@ -8904,7 +8907,7 @@
       </c>
       <c r="G320" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,5.6M 1% 0805 SMD,320</v>
+        <v>RESISTORS,3.9M 1% 0805 SMD,320</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.3">
@@ -8912,7 +8915,7 @@
         <v>202</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C321" s="15" t="s">
         <v>547</v>
@@ -8925,7 +8928,7 @@
       </c>
       <c r="G321" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>RESISTORS,6.2M 1% 0805 SMD,321</v>
+        <v>RESISTORS,4.3M 1% 0805 SMD,321</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.3">
@@ -8933,7 +8936,7 @@
         <v>202</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C322" s="15" t="s">
         <v>547</v>
@@ -8945,8 +8948,8 @@
         <v>322</v>
       </c>
       <c r="G322" s="1" t="str">
-        <f t="shared" ref="G322:G326" si="5">_xlfn.CONCAT(A322,",",B322," ", C322, " ",D322,",",E322)</f>
-        <v>RESISTORS,6.8M 1% 0805 SMD,322</v>
+        <f t="shared" si="4"/>
+        <v>RESISTORS,4.7M 1% 0805 SMD,322</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.3">
@@ -8954,7 +8957,7 @@
         <v>202</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C323" s="15" t="s">
         <v>547</v>
@@ -8966,8 +8969,8 @@
         <v>323</v>
       </c>
       <c r="G323" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>RESISTORS,7.5M 1% 0805 SMD,323</v>
+        <f t="shared" si="4"/>
+        <v>RESISTORS,5.1M 1% 0805 SMD,323</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.3">
@@ -8975,7 +8978,7 @@
         <v>202</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C324" s="15" t="s">
         <v>547</v>
@@ -8987,8 +8990,8 @@
         <v>324</v>
       </c>
       <c r="G324" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>RESISTORS,8.2M 1% 0805 SMD,324</v>
+        <f t="shared" si="4"/>
+        <v>RESISTORS,5.6M 1% 0805 SMD,324</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.3">
@@ -8996,7 +8999,7 @@
         <v>202</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C325" s="15" t="s">
         <v>547</v>
@@ -9008,8 +9011,8 @@
         <v>325</v>
       </c>
       <c r="G325" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>RESISTORS,9.1M 1% 0805 SMD,325</v>
+        <f t="shared" si="4"/>
+        <v>RESISTORS,6.2M 1% 0805 SMD,325</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.3">
@@ -9017,7 +9020,7 @@
         <v>202</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>134</v>
+        <v>427</v>
       </c>
       <c r="C326" s="15" t="s">
         <v>547</v>
@@ -9029,27 +9032,111 @@
         <v>326</v>
       </c>
       <c r="G326" s="1" t="str">
+        <f t="shared" ref="G326:G330" si="5">_xlfn.CONCAT(A326,",",B326," ", C326, " ",D326,",",E326)</f>
+        <v>RESISTORS,6.8M 1% 0805 SMD,326</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C327" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="D327" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="E327" s="1">
+        <v>327</v>
+      </c>
+      <c r="G327" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>RESISTORS,10M 1% 0805 SMD,326</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D327" s="2"/>
+        <v>RESISTORS,7.5M 1% 0805 SMD,327</v>
+      </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D328" s="2"/>
+      <c r="A328" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C328" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="D328" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="E328" s="1">
+        <v>328</v>
+      </c>
+      <c r="G328" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>RESISTORS,8.2M 1% 0805 SMD,328</v>
+      </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D329" s="2"/>
+      <c r="A329" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C329" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="D329" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="E329" s="1">
+        <v>329</v>
+      </c>
+      <c r="G329" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>RESISTORS,9.1M 1% 0805 SMD,329</v>
+      </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D330" s="2"/>
+      <c r="A330" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C330" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="D330" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="E330" s="1">
+        <v>330</v>
+      </c>
+      <c r="G330" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>RESISTORS,10M 1% 0805 SMD,330</v>
+      </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D331" s="2"/>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D332" s="2"/>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D333" s="2"/>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D334" s="2"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D335" s="2"/>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D336" s="2"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -9835,10 +9922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBACCCA-E4A7-4298-9222-BB383B67ECE7}">
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F169" sqref="F169"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G168" sqref="G1:G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9847,7 +9934,7 @@
     <col min="2" max="2" width="18.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="1"/>
     <col min="7" max="7" width="45.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
@@ -9867,12 +9954,12 @@
         <v>1</v>
       </c>
       <c r="E1" s="7">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7" t="str">
         <f>_xlfn.CONCAT(A1,",",B1," ", C1, " ",D1,",",E1)</f>
-        <v>CAPACITORS,2pF Ceramic PTH,327</v>
+        <v>CAPACITORS,2pF Ceramic PTH,331</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -9889,12 +9976,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="7">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="str">
-        <f t="shared" ref="G2:G52" si="0">_xlfn.CONCAT(A2,",",B2," ", C2, " ",D2,",",E2)</f>
-        <v>CAPACITORS,3pF Ceramic PTH,328</v>
+        <f t="shared" ref="G2:G54" si="0">_xlfn.CONCAT(A2,",",B2," ", C2, " ",D2,",",E2)</f>
+        <v>CAPACITORS,3pF Ceramic PTH,332</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -9911,12 +9998,12 @@
         <v>1</v>
       </c>
       <c r="E3" s="7">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,5pF Ceramic PTH,329</v>
+        <v>CAPACITORS,5pF Ceramic PTH,333</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -9933,12 +10020,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="7">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,10pF Ceramic PTH,330</v>
+        <v>CAPACITORS,10pF Ceramic PTH,334</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -9955,12 +10042,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="7">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,15pF Ceramic PTH,331</v>
+        <v>CAPACITORS,15pF Ceramic PTH,335</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -9977,12 +10064,12 @@
         <v>1</v>
       </c>
       <c r="E6" s="7">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,22pF Ceramic PTH,332</v>
+        <v>CAPACITORS,22pF Ceramic PTH,336</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -9999,12 +10086,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="7">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,30pF Ceramic PTH,333</v>
+        <v>CAPACITORS,30pF Ceramic PTH,337</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -10021,12 +10108,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="7">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,33pF Ceramic PTH,334</v>
+        <v>CAPACITORS,33pF Ceramic PTH,338</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -10043,12 +10130,12 @@
         <v>1</v>
       </c>
       <c r="E9" s="7">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,47pF Ceramic PTH,335</v>
+        <v>CAPACITORS,47pF Ceramic PTH,339</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -10065,12 +10152,12 @@
         <v>1</v>
       </c>
       <c r="E10" s="7">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,68pF Ceramic PTH,336</v>
+        <v>CAPACITORS,68pF Ceramic PTH,340</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -10087,12 +10174,12 @@
         <v>1</v>
       </c>
       <c r="E11" s="7">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,75pF Ceramic PTH,337</v>
+        <v>CAPACITORS,75pF Ceramic PTH,341</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -10109,12 +10196,12 @@
         <v>1</v>
       </c>
       <c r="E12" s="7">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,82pF Ceramic PTH,338</v>
+        <v>CAPACITORS,82pF Ceramic PTH,342</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -10131,12 +10218,12 @@
         <v>1</v>
       </c>
       <c r="E13" s="7">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,100pF Ceramic PTH,339</v>
+        <v>CAPACITORS,100pF Ceramic PTH,343</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -10153,12 +10240,12 @@
         <v>1</v>
       </c>
       <c r="E14" s="7">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,150pF Ceramic PTH,340</v>
+        <v>CAPACITORS,150pF Ceramic PTH,344</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -10175,12 +10262,12 @@
         <v>1</v>
       </c>
       <c r="E15" s="7">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,220pF Ceramic PTH,341</v>
+        <v>CAPACITORS,220pF Ceramic PTH,345</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -10197,12 +10284,12 @@
         <v>1</v>
       </c>
       <c r="E16" s="7">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,330pF Ceramic PTH,342</v>
+        <v>CAPACITORS,330pF Ceramic PTH,346</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -10219,12 +10306,12 @@
         <v>1</v>
       </c>
       <c r="E17" s="7">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,470pF Ceramic PTH,343</v>
+        <v>CAPACITORS,470pF Ceramic PTH,347</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -10241,12 +10328,12 @@
         <v>1</v>
       </c>
       <c r="E18" s="7">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,680pF Ceramic PTH,344</v>
+        <v>CAPACITORS,680pF Ceramic PTH,348</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -10263,12 +10350,12 @@
         <v>1</v>
       </c>
       <c r="E19" s="7">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,1nF Ceramic PTH,345</v>
+        <v>CAPACITORS,1nF Ceramic PTH,349</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -10285,12 +10372,12 @@
         <v>1</v>
       </c>
       <c r="E20" s="7">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,1.5nF Ceramic PTH,346</v>
+        <v>CAPACITORS,1.5nF Ceramic PTH,350</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -10307,12 +10394,12 @@
         <v>1</v>
       </c>
       <c r="E21" s="7">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,2.2nF Ceramic PTH,347</v>
+        <v>CAPACITORS,2.2nF Ceramic PTH,351</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -10329,12 +10416,12 @@
         <v>1</v>
       </c>
       <c r="E22" s="7">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,3.3nF Ceramic PTH,348</v>
+        <v>CAPACITORS,3.3nF Ceramic PTH,352</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -10351,12 +10438,12 @@
         <v>1</v>
       </c>
       <c r="E23" s="7">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,4.7nF Ceramic PTH,349</v>
+        <v>CAPACITORS,4.7nF Ceramic PTH,353</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -10373,12 +10460,12 @@
         <v>1</v>
       </c>
       <c r="E24" s="7">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,6.8nF Ceramic PTH,350</v>
+        <v>CAPACITORS,6.8nF Ceramic PTH,354</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -10395,12 +10482,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="7">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,10nF Ceramic PTH,351</v>
+        <v>CAPACITORS,10nF Ceramic PTH,355</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -10417,12 +10504,12 @@
         <v>1</v>
       </c>
       <c r="E26" s="7">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,15nF Ceramic PTH,352</v>
+        <v>CAPACITORS,15nF Ceramic PTH,356</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -10439,12 +10526,12 @@
         <v>1</v>
       </c>
       <c r="E27" s="7">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,22nF Ceramic PTH,353</v>
+        <v>CAPACITORS,22nF Ceramic PTH,357</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -10461,12 +10548,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="7">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,47nF Ceramic PTH,354</v>
+        <v>CAPACITORS,47nF Ceramic PTH,358</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -10483,12 +10570,12 @@
         <v>1</v>
       </c>
       <c r="E29" s="7">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,68nF Ceramic PTH,355</v>
+        <v>CAPACITORS,68nF Ceramic PTH,359</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -10505,12 +10592,12 @@
         <v>1</v>
       </c>
       <c r="E30" s="7">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,100nF Ceramic PTH,356</v>
+        <v>CAPACITORS,100nF Ceramic PTH,360</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -10527,12 +10614,12 @@
         <v>1</v>
       </c>
       <c r="E31" s="7">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,220nF Ceramic PTH,357</v>
+        <v>CAPACITORS,220nF Ceramic PTH,361</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -10549,12 +10636,12 @@
         <v>1</v>
       </c>
       <c r="E32" s="7">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,470nF Ceramic PTH,358</v>
+        <v>CAPACITORS,470nF Ceramic PTH,362</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -10571,12 +10658,12 @@
         <v>1</v>
       </c>
       <c r="E33" s="7">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,1uF 50V Electrolytic PTH,359</v>
+        <v>CAPACITORS,1uF 50V Electrolytic PTH,363</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -10593,12 +10680,12 @@
         <v>1</v>
       </c>
       <c r="E34" s="7">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,10uF 50V Electrolytic PTH,360</v>
+        <v>CAPACITORS,10uF 50V Electrolytic PTH,364</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -10615,12 +10702,12 @@
         <v>1</v>
       </c>
       <c r="E35" s="7">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,2.2uF 50V Electrolytic PTH,361</v>
+        <v>CAPACITORS,2.2uF 50V Electrolytic PTH,365</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -10637,12 +10724,12 @@
         <v>1</v>
       </c>
       <c r="E36" s="7">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,3.3uF 50V Electrolytic PTH,362</v>
+        <v>CAPACITORS,3.3uF 50V Electrolytic PTH,366</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -10659,12 +10746,12 @@
         <v>1</v>
       </c>
       <c r="E37" s="7">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,4.7uF 50V Electrolytic PTH,363</v>
+        <v>CAPACITORS,4.7uF 50V Electrolytic PTH,367</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -10681,12 +10768,12 @@
         <v>1</v>
       </c>
       <c r="E38" s="7">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,22uF 50V Electrolytic PTH,364</v>
+        <v>CAPACITORS,22uF 50V Electrolytic PTH,368</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -10703,12 +10790,12 @@
         <v>1</v>
       </c>
       <c r="E39" s="7">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,33uF 50V Electrolytic PTH,365</v>
+        <v>CAPACITORS,33uF 50V Electrolytic PTH,369</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -10725,12 +10812,12 @@
         <v>1</v>
       </c>
       <c r="E40" s="7">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,47uF 50V Electrolytic PTH,366</v>
+        <v>CAPACITORS,47uF 50V Electrolytic PTH,370</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -10747,12 +10834,12 @@
         <v>1</v>
       </c>
       <c r="E41" s="7">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,100uF 50V Electrolytic PTH,367</v>
+        <v>CAPACITORS,100uF 50V Electrolytic PTH,371</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -10769,12 +10856,12 @@
         <v>1</v>
       </c>
       <c r="E42" s="7">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,220uF 50V Electrolytic PTH,368</v>
+        <v>CAPACITORS,220uF 50V Electrolytic PTH,372</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -10791,12 +10878,12 @@
         <v>1</v>
       </c>
       <c r="E43" s="7">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,330uF 50V Electrolytic PTH,369</v>
+        <v>CAPACITORS,330uF 50V Electrolytic PTH,373</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -10813,12 +10900,12 @@
         <v>1</v>
       </c>
       <c r="E44" s="7">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,470uF 50V Electrolytic PTH,370</v>
+        <v>CAPACITORS,470uF 50V Electrolytic PTH,374</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -10835,12 +10922,12 @@
         <v>1</v>
       </c>
       <c r="E45" s="7">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,5pF Trimmer JML06-1 PTH,371</v>
+        <v>CAPACITORS,5pF Trimmer JML06-1 PTH,375</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -10857,12 +10944,12 @@
         <v>1</v>
       </c>
       <c r="E46" s="7">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,10pF Trimmer JML06-1 PTH,372</v>
+        <v>CAPACITORS,10pF Trimmer JML06-1 PTH,376</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -10879,12 +10966,12 @@
         <v>1</v>
       </c>
       <c r="E47" s="7">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,20pF Trimmer JML06-1 PTH,373</v>
+        <v>CAPACITORS,20pF Trimmer JML06-1 PTH,377</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -10901,12 +10988,12 @@
         <v>1</v>
       </c>
       <c r="E48" s="7">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,30pF Trimmer JML06-1 PTH,374</v>
+        <v>CAPACITORS,30pF Trimmer JML06-1 PTH,378</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -10923,12 +11010,12 @@
         <v>1</v>
       </c>
       <c r="E49" s="7">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,40pF Trimmer JML06-1 PTH,375</v>
+        <v>CAPACITORS,40pF Trimmer JML06-1 PTH,379</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -10945,12 +11032,12 @@
         <v>1</v>
       </c>
       <c r="E50" s="7">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,50pF Trimmer JML06-1 PTH,376</v>
+        <v>CAPACITORS,50pF Trimmer JML06-1 PTH,380</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -10967,12 +11054,12 @@
         <v>1</v>
       </c>
       <c r="E51" s="7">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,60pF Trimmer JML06-1 PTH,377</v>
+        <v>CAPACITORS,60pF Trimmer JML06-1 PTH,381</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -10989,12 +11076,12 @@
         <v>1</v>
       </c>
       <c r="E52" s="7">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>CAPACITORS,70pF Trimmer JML06-1 PTH,378</v>
+        <v>CAPACITORS,70pF Trimmer JML06-1 PTH,382</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -11002,21 +11089,21 @@
         <v>203</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>6</v>
+        <v>447</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>367</v>
       </c>
       <c r="E53" s="7">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7" t="str">
-        <f t="shared" ref="G53:G69" si="1">_xlfn.CONCAT(A53,",",B53," ", C53, " ",D53,",",E53)</f>
-        <v>CAPACITORS,15pF 50V 5% Ceramic 0603 SMD,379</v>
+        <f t="shared" si="0"/>
+        <v>CAPACITORS,1pF 50V 0.25% Ceramic 0603 SMD,383</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -11024,7 +11111,7 @@
         <v>203</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>379</v>
@@ -11033,12 +11120,12 @@
         <v>367</v>
       </c>
       <c r="E54" s="7">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>CAPACITORS,22pF 50V 5% Ceramic 0603 SMD,380</v>
+        <f t="shared" si="0"/>
+        <v>CAPACITORS,10pF 50V 5% Ceramic 0603 SMD,384</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -11046,7 +11133,7 @@
         <v>203</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>375</v>
+        <v>6</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>379</v>
@@ -11055,12 +11142,12 @@
         <v>367</v>
       </c>
       <c r="E55" s="7">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>CAPACITORS,27pF 50V 5% Ceramic 0603 SMD,381</v>
+        <f t="shared" ref="G55:G75" si="1">_xlfn.CONCAT(A55,",",B55," ", C55, " ",D55,",",E55)</f>
+        <v>CAPACITORS,15pF 50V 5% Ceramic 0603 SMD,385</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -11068,7 +11155,7 @@
         <v>203</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>379</v>
@@ -11077,12 +11164,12 @@
         <v>367</v>
       </c>
       <c r="E56" s="7">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>CAPACITORS,33pF 50V 5% Ceramic 0603 SMD,382</v>
+        <v>CAPACITORS,22pF 50V 5% Ceramic 0603 SMD,386</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -11090,7 +11177,7 @@
         <v>203</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>10</v>
+        <v>375</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>379</v>
@@ -11099,12 +11186,12 @@
         <v>367</v>
       </c>
       <c r="E57" s="7">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>CAPACITORS,47pF 50V 5% Ceramic 0603 SMD,383</v>
+        <v>CAPACITORS,27pF 50V 5% Ceramic 0603 SMD,387</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -11112,7 +11199,7 @@
         <v>203</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>379</v>
@@ -11121,12 +11208,12 @@
         <v>367</v>
       </c>
       <c r="E58" s="7">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>CAPACITORS,68pF 50V 5% Ceramic 0603 SMD,384</v>
+        <v>CAPACITORS,33pF 50V 5% Ceramic 0603 SMD,388</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -11134,7 +11221,7 @@
         <v>203</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>379</v>
@@ -11143,12 +11230,12 @@
         <v>367</v>
       </c>
       <c r="E59" s="7">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>CAPACITORS,82pF 50V 5% Ceramic 0603 SMD,385</v>
+        <v>CAPACITORS,47pF 50V 5% Ceramic 0603 SMD,389</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -11156,7 +11243,7 @@
         <v>203</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>379</v>
@@ -11165,12 +11252,12 @@
         <v>367</v>
       </c>
       <c r="E60" s="7">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>CAPACITORS,100pF 50V 5% Ceramic 0603 SMD,386</v>
+        <v>CAPACITORS,68pF 50V 5% Ceramic 0603 SMD,390</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -11178,7 +11265,7 @@
         <v>203</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>376</v>
+        <v>13</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>379</v>
@@ -11187,12 +11274,12 @@
         <v>367</v>
       </c>
       <c r="E61" s="7">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>CAPACITORS,120pF 50V 5% Ceramic 0603 SMD,387</v>
+        <v>CAPACITORS,82pF 50V 5% Ceramic 0603 SMD,391</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -11200,7 +11287,7 @@
         <v>203</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>379</v>
@@ -11209,12 +11296,12 @@
         <v>367</v>
       </c>
       <c r="E62" s="7">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>CAPACITORS,150pF 50V 5% Ceramic 0603 SMD,388</v>
+        <v>CAPACITORS,100pF 50V 5% Ceramic 0603 SMD,392</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -11222,7 +11309,7 @@
         <v>203</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>379</v>
@@ -11231,12 +11318,12 @@
         <v>367</v>
       </c>
       <c r="E63" s="7">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>CAPACITORS,180pF 50V 5% Ceramic 0603 SMD,389</v>
+        <v>CAPACITORS,120pF 50V 5% Ceramic 0603 SMD,393</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -11244,7 +11331,7 @@
         <v>203</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>379</v>
@@ -11253,12 +11340,12 @@
         <v>367</v>
       </c>
       <c r="E64" s="7">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>CAPACITORS,220pF 50V 5% Ceramic 0603 SMD,390</v>
+        <v>CAPACITORS,150pF 50V 5% Ceramic 0603 SMD,394</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -11266,7 +11353,7 @@
         <v>203</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>20</v>
+        <v>377</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>379</v>
@@ -11275,12 +11362,12 @@
         <v>367</v>
       </c>
       <c r="E65" s="7">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>CAPACITORS,1nF 50V 5% Ceramic 0603 SMD,391</v>
+        <v>CAPACITORS,180pF 50V 5% Ceramic 0603 SMD,395</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -11288,7 +11375,7 @@
         <v>203</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>379</v>
@@ -11297,12 +11384,12 @@
         <v>367</v>
       </c>
       <c r="E66" s="7">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>CAPACITORS,100nF 50V 5% Ceramic 0603 SMD,392</v>
+        <v>CAPACITORS,220pF 50V 5% Ceramic 0603 SMD,396</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -11310,7 +11397,7 @@
         <v>203</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>379</v>
@@ -11319,12 +11406,12 @@
         <v>367</v>
       </c>
       <c r="E67" s="7">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>CAPACITORS,100nF 50V 5% Ceramic 0603 SMD,393</v>
+        <v>CAPACITORS,1nF 50V 5% Ceramic 0603 SMD,397</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -11332,21 +11419,21 @@
         <v>203</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>367</v>
       </c>
       <c r="E68" s="7">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>CAPACITORS,470nF 25V 5% Ceramic 0603 SMD,394</v>
+        <v>CAPACITORS,10nF 50V 5% Ceramic 0603 SMD,398</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -11354,21 +11441,21 @@
         <v>203</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>378</v>
+        <v>28</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D69" s="16" t="s">
         <v>367</v>
       </c>
       <c r="E69" s="7">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>CAPACITORS,1uF 10V 5% Ceramic 0603 SMD,395</v>
+        <v>CAPACITORS,22nF 50V 5% Ceramic 0603 SMD,399</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -11376,134 +11463,139 @@
         <v>203</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>383</v>
+        <v>379</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>367</v>
       </c>
       <c r="E70" s="7">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7" t="str">
-        <f t="shared" ref="G70:G114" si="2">_xlfn.CONCAT(A70,",",B70," ", C70, " ",D70,",",E70)</f>
-        <v>CAPACITORS,0.5pF 50V 0.25% Ceramic 0805 SMD,396</v>
+        <f t="shared" si="1"/>
+        <v>CAPACITORS,33nF 50V 5% Ceramic 0603 SMD,400</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>446</v>
+      <c r="B71" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>383</v>
+        <v>379</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>367</v>
       </c>
       <c r="E71" s="7">
-        <v>397</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="F71" s="7"/>
       <c r="G71" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>CAPACITORS,0.75pF 50V 0.25% Ceramic 0805 SMD,397</v>
+        <f t="shared" si="1"/>
+        <v>CAPACITORS,47nF 50V 5% Ceramic 0603 SMD,401</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>447</v>
+      <c r="B72" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>383</v>
+        <v>379</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>367</v>
       </c>
       <c r="E72" s="7">
-        <v>398</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="F72" s="7"/>
       <c r="G72" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>CAPACITORS,1pF 50V 0.25% Ceramic 0805 SMD,398</v>
+        <f t="shared" si="1"/>
+        <v>CAPACITORS,100nF 50V 5% Ceramic 0603 SMD,402</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>448</v>
+      <c r="B73" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>383</v>
+        <v>380</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>367</v>
       </c>
       <c r="E73" s="7">
-        <v>399</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="F73" s="7"/>
       <c r="G73" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>CAPACITORS,1.1pF 50V 0.25% Ceramic 0805 SMD,399</v>
+        <f t="shared" si="1"/>
+        <v>CAPACITORS,470nF 25V 5% Ceramic 0603 SMD,403</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>449</v>
+      <c r="B74" s="7" t="s">
+        <v>378</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>367</v>
       </c>
       <c r="E74" s="7">
-        <v>400</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="F74" s="7"/>
       <c r="G74" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>CAPACITORS,1.2pF 50V 0.25% Ceramic 0805 SMD,400</v>
+        <f t="shared" si="1"/>
+        <v>CAPACITORS,1uF 10V 5% Ceramic 0603 SMD,404</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>450</v>
+      <c r="B75" s="7" t="s">
+        <v>499</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>383</v>
+        <v>548</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>367</v>
       </c>
       <c r="E75" s="7">
-        <v>401</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="F75" s="7"/>
       <c r="G75" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>CAPACITORS,1.3pF 50V 0.25% Ceramic 0805 SMD,401</v>
+        <f t="shared" si="1"/>
+        <v>CAPACITORS,10uF 6.3V 5% Ceramic 0603 SMD,405</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>451</v>
+      <c r="B76" s="7" t="s">
+        <v>445</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>507</v>
@@ -11512,11 +11604,12 @@
         <v>383</v>
       </c>
       <c r="E76" s="7">
-        <v>402</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="F76" s="7"/>
       <c r="G76" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>CAPACITORS,1.5pF 50V 0.25% Ceramic 0805 SMD,402</v>
+        <f t="shared" ref="G76:G120" si="2">_xlfn.CONCAT(A76,",",B76," ", C76, " ",D76,",",E76)</f>
+        <v>CAPACITORS,0.5pF 50V 0.25% Ceramic 0805 SMD,406</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -11524,7 +11617,7 @@
         <v>203</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>507</v>
@@ -11533,11 +11626,11 @@
         <v>383</v>
       </c>
       <c r="E77" s="7">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G77" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,1.8pF 50V 0.25% Ceramic 0805 SMD,403</v>
+        <v>CAPACITORS,0.75pF 50V 0.25% Ceramic 0805 SMD,407</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -11545,7 +11638,7 @@
         <v>203</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>2</v>
+        <v>447</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>507</v>
@@ -11554,11 +11647,11 @@
         <v>383</v>
       </c>
       <c r="E78" s="7">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="G78" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,2pF 50V 0.25% Ceramic 0805 SMD,404</v>
+        <v>CAPACITORS,1pF 50V 0.25% Ceramic 0805 SMD,408</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -11566,7 +11659,7 @@
         <v>203</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>507</v>
@@ -11575,11 +11668,11 @@
         <v>383</v>
       </c>
       <c r="E79" s="7">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G79" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,2.2pF 50V 0.25% Ceramic 0805 SMD,405</v>
+        <v>CAPACITORS,1.1pF 50V 0.25% Ceramic 0805 SMD,409</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -11587,7 +11680,7 @@
         <v>203</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>507</v>
@@ -11596,11 +11689,11 @@
         <v>383</v>
       </c>
       <c r="E80" s="7">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G80" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,2.4pF 50V 0.25% Ceramic 0805 SMD,406</v>
+        <v>CAPACITORS,1.2pF 50V 0.25% Ceramic 0805 SMD,410</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -11608,7 +11701,7 @@
         <v>203</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>507</v>
@@ -11617,11 +11710,11 @@
         <v>383</v>
       </c>
       <c r="E81" s="7">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G81" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,2.5pF 50V 0.25% Ceramic 0805 SMD,407</v>
+        <v>CAPACITORS,1.3pF 50V 0.25% Ceramic 0805 SMD,411</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -11629,7 +11722,7 @@
         <v>203</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>507</v>
@@ -11638,11 +11731,11 @@
         <v>383</v>
       </c>
       <c r="E82" s="7">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="G82" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,2.7pF 50V 0.25% Ceramic 0805 SMD,408</v>
+        <v>CAPACITORS,1.5pF 50V 0.25% Ceramic 0805 SMD,412</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -11650,7 +11743,7 @@
         <v>203</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>3</v>
+        <v>452</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>507</v>
@@ -11659,11 +11752,11 @@
         <v>383</v>
       </c>
       <c r="E83" s="7">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="G83" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,3pF 50V 0.25% Ceramic 0805 SMD,409</v>
+        <v>CAPACITORS,1.8pF 50V 0.25% Ceramic 0805 SMD,413</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -11671,7 +11764,7 @@
         <v>203</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>457</v>
+        <v>2</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>507</v>
@@ -11680,11 +11773,11 @@
         <v>383</v>
       </c>
       <c r="E84" s="7">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G84" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,3.3pF 50V 0.25% Ceramic 0805 SMD,410</v>
+        <v>CAPACITORS,2pF 50V 0.25% Ceramic 0805 SMD,414</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -11692,7 +11785,7 @@
         <v>203</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>507</v>
@@ -11701,11 +11794,11 @@
         <v>383</v>
       </c>
       <c r="E85" s="7">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G85" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,3.6pF 50V 0.25% Ceramic 0805 SMD,411</v>
+        <v>CAPACITORS,2.2pF 50V 0.25% Ceramic 0805 SMD,415</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -11713,7 +11806,7 @@
         <v>203</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>507</v>
@@ -11722,11 +11815,11 @@
         <v>383</v>
       </c>
       <c r="E86" s="7">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="G86" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,3.9pF 50V 0.25% Ceramic 0805 SMD,412</v>
+        <v>CAPACITORS,2.4pF 50V 0.25% Ceramic 0805 SMD,416</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -11734,7 +11827,7 @@
         <v>203</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>507</v>
@@ -11743,11 +11836,11 @@
         <v>383</v>
       </c>
       <c r="E87" s="7">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="G87" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,4pF 50V 0.25% Ceramic 0805 SMD,413</v>
+        <v>CAPACITORS,2.5pF 50V 0.25% Ceramic 0805 SMD,417</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -11755,7 +11848,7 @@
         <v>203</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>507</v>
@@ -11764,11 +11857,11 @@
         <v>383</v>
       </c>
       <c r="E88" s="7">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G88" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,4.3pF 50V 0.25% Ceramic 0805 SMD,414</v>
+        <v>CAPACITORS,2.7pF 50V 0.25% Ceramic 0805 SMD,418</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -11776,7 +11869,7 @@
         <v>203</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>462</v>
+        <v>3</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>507</v>
@@ -11785,11 +11878,11 @@
         <v>383</v>
       </c>
       <c r="E89" s="7">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="G89" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,4.7pF 50V 0.25% Ceramic 0805 SMD,415</v>
+        <v>CAPACITORS,3pF 50V 0.25% Ceramic 0805 SMD,419</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -11797,7 +11890,7 @@
         <v>203</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>4</v>
+        <v>457</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>507</v>
@@ -11806,11 +11899,11 @@
         <v>383</v>
       </c>
       <c r="E90" s="7">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G90" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,5pF 50V 0.25% Ceramic 0805 SMD,416</v>
+        <v>CAPACITORS,3.3pF 50V 0.25% Ceramic 0805 SMD,420</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -11818,20 +11911,20 @@
         <v>203</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E91" s="7">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G91" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,5.1pF 50V 0.5% Ceramic 0805 SMD,417</v>
+        <v>CAPACITORS,3.6pF 50V 0.25% Ceramic 0805 SMD,421</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -11839,20 +11932,20 @@
         <v>203</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E92" s="7">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G92" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,5.6pF 50V 0.5% Ceramic 0805 SMD,418</v>
+        <v>CAPACITORS,3.9pF 50V 0.25% Ceramic 0805 SMD,422</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -11860,20 +11953,20 @@
         <v>203</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D93" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E93" s="7">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G93" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,6pF 50V 0.5% Ceramic 0805 SMD,419</v>
+        <v>CAPACITORS,4pF 50V 0.25% Ceramic 0805 SMD,423</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -11881,20 +11974,20 @@
         <v>203</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D94" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E94" s="7">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G94" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,6.2pF 50V 0.5% Ceramic 0805 SMD,420</v>
+        <v>CAPACITORS,4.3pF 50V 0.25% Ceramic 0805 SMD,424</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -11902,20 +11995,20 @@
         <v>203</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D95" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E95" s="7">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="G95" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,6.8pF 50V 0.5% Ceramic 0805 SMD,421</v>
+        <v>CAPACITORS,4.7pF 50V 0.25% Ceramic 0805 SMD,425</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -11923,7 +12016,7 @@
         <v>203</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>468</v>
+        <v>4</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>507</v>
@@ -11932,11 +12025,11 @@
         <v>383</v>
       </c>
       <c r="E96" s="7">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="G96" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,7pF 50V 0.25% Ceramic 0805 SMD,422</v>
+        <v>CAPACITORS,5pF 50V 0.25% Ceramic 0805 SMD,426</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -11944,7 +12037,7 @@
         <v>203</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>506</v>
@@ -11953,11 +12046,11 @@
         <v>383</v>
       </c>
       <c r="E97" s="7">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="G97" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,7.5pF 50V 0.5% Ceramic 0805 SMD,423</v>
+        <v>CAPACITORS,5.1pF 50V 0.5% Ceramic 0805 SMD,427</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -11965,7 +12058,7 @@
         <v>203</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>506</v>
@@ -11974,11 +12067,11 @@
         <v>383</v>
       </c>
       <c r="E98" s="7">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="G98" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,8pF 50V 0.5% Ceramic 0805 SMD,424</v>
+        <v>CAPACITORS,5.6pF 50V 0.5% Ceramic 0805 SMD,428</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -11986,7 +12079,7 @@
         <v>203</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>506</v>
@@ -11995,11 +12088,11 @@
         <v>383</v>
       </c>
       <c r="E99" s="7">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G99" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,8.2pF 50V 0.5% Ceramic 0805 SMD,425</v>
+        <v>CAPACITORS,6pF 50V 0.5% Ceramic 0805 SMD,429</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -12007,7 +12100,7 @@
         <v>203</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>506</v>
@@ -12016,11 +12109,11 @@
         <v>383</v>
       </c>
       <c r="E100" s="7">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="G100" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,9pF 50V 0.5% Ceramic 0805 SMD,426</v>
+        <v>CAPACITORS,6.2pF 50V 0.5% Ceramic 0805 SMD,430</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -12028,7 +12121,7 @@
         <v>203</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>506</v>
@@ -12037,11 +12130,11 @@
         <v>383</v>
       </c>
       <c r="E101" s="7">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G101" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,9.1pF 50V 0.5% Ceramic 0805 SMD,427</v>
+        <v>CAPACITORS,6.8pF 50V 0.5% Ceramic 0805 SMD,431</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -12049,20 +12142,20 @@
         <v>203</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>5</v>
+        <v>468</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>379</v>
+        <v>507</v>
       </c>
       <c r="D102" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E102" s="7">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G102" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,10pF 50V 5% Ceramic 0805 SMD,428</v>
+        <v>CAPACITORS,7pF 50V 0.25% Ceramic 0805 SMD,432</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -12070,20 +12163,20 @@
         <v>203</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>379</v>
+        <v>506</v>
       </c>
       <c r="D103" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E103" s="7">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G103" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,11pF 50V 5% Ceramic 0805 SMD,429</v>
+        <v>CAPACITORS,7.5pF 50V 0.5% Ceramic 0805 SMD,433</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -12091,20 +12184,20 @@
         <v>203</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>379</v>
+        <v>506</v>
       </c>
       <c r="D104" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E104" s="7">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G104" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,12pF 50V 5% Ceramic 0805 SMD,430</v>
+        <v>CAPACITORS,8pF 50V 0.5% Ceramic 0805 SMD,434</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -12112,20 +12205,20 @@
         <v>203</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>379</v>
+        <v>506</v>
       </c>
       <c r="D105" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E105" s="7">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G105" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,13pF 50V 5% Ceramic 0805 SMD,431</v>
+        <v>CAPACITORS,8.2pF 50V 0.5% Ceramic 0805 SMD,435</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -12133,20 +12226,20 @@
         <v>203</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>6</v>
+        <v>472</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>379</v>
+        <v>506</v>
       </c>
       <c r="D106" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E106" s="7">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="G106" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,15pF 50V 5% Ceramic 0805 SMD,432</v>
+        <v>CAPACITORS,9pF 50V 0.5% Ceramic 0805 SMD,436</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -12154,20 +12247,20 @@
         <v>203</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>379</v>
+        <v>506</v>
       </c>
       <c r="D107" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E107" s="7">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="G107" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,16pF 50V 5% Ceramic 0805 SMD,433</v>
+        <v>CAPACITORS,9.1pF 50V 0.5% Ceramic 0805 SMD,437</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -12175,7 +12268,7 @@
         <v>203</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>478</v>
+        <v>5</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>379</v>
@@ -12184,11 +12277,11 @@
         <v>383</v>
       </c>
       <c r="E108" s="7">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="G108" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,18pF 50V 5% Ceramic 0805 SMD,434</v>
+        <v>CAPACITORS,10pF 50V 5% Ceramic 0805 SMD,438</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -12196,7 +12289,7 @@
         <v>203</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>362</v>
+        <v>474</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>379</v>
@@ -12205,11 +12298,11 @@
         <v>383</v>
       </c>
       <c r="E109" s="7">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G109" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,20pF 50V 5% Ceramic 0805 SMD,435</v>
+        <v>CAPACITORS,11pF 50V 5% Ceramic 0805 SMD,439</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -12217,7 +12310,7 @@
         <v>203</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>7</v>
+        <v>475</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>379</v>
@@ -12226,11 +12319,11 @@
         <v>383</v>
       </c>
       <c r="E110" s="7">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G110" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,22pF 50V 5% Ceramic 0805 SMD,436</v>
+        <v>CAPACITORS,12pF 50V 5% Ceramic 0805 SMD,440</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -12238,7 +12331,7 @@
         <v>203</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>379</v>
@@ -12247,11 +12340,11 @@
         <v>383</v>
       </c>
       <c r="E111" s="7">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="G111" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,24pF 50V 5% Ceramic 0805 SMD,437</v>
+        <v>CAPACITORS,13pF 50V 5% Ceramic 0805 SMD,441</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -12259,7 +12352,7 @@
         <v>203</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>375</v>
+        <v>6</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>379</v>
@@ -12268,11 +12361,11 @@
         <v>383</v>
       </c>
       <c r="E112" s="7">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G112" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,27pF 50V 5% Ceramic 0805 SMD,438</v>
+        <v>CAPACITORS,15pF 50V 5% Ceramic 0805 SMD,442</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -12280,7 +12373,7 @@
         <v>203</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>8</v>
+        <v>477</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>379</v>
@@ -12289,11 +12382,11 @@
         <v>383</v>
       </c>
       <c r="E113" s="7">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="G113" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,30pF 50V 5% Ceramic 0805 SMD,439</v>
+        <v>CAPACITORS,16pF 50V 5% Ceramic 0805 SMD,443</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -12301,7 +12394,7 @@
         <v>203</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>9</v>
+        <v>478</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>379</v>
@@ -12310,19 +12403,19 @@
         <v>383</v>
       </c>
       <c r="E114" s="7">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="G114" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>CAPACITORS,33pF 50V 5% Ceramic 0805 SMD,440</v>
+        <v>CAPACITORS,18pF 50V 5% Ceramic 0805 SMD,444</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B115" s="7" t="s">
-        <v>480</v>
+      <c r="B115" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>379</v>
@@ -12331,20 +12424,19 @@
         <v>383</v>
       </c>
       <c r="E115" s="7">
-        <v>441</v>
-      </c>
-      <c r="F115" s="7"/>
+        <v>445</v>
+      </c>
       <c r="G115" s="7" t="str">
-        <f t="shared" ref="G115:G162" si="3">_xlfn.CONCAT(A115,",",B115," ", C115, " ",D115,",",E115)</f>
-        <v>CAPACITORS,36pF 50V 5% Ceramic 0805 SMD,441</v>
+        <f t="shared" si="2"/>
+        <v>CAPACITORS,20pF 50V 5% Ceramic 0805 SMD,445</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B116" s="7" t="s">
-        <v>481</v>
+      <c r="B116" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>379</v>
@@ -12353,20 +12445,19 @@
         <v>383</v>
       </c>
       <c r="E116" s="7">
-        <v>442</v>
-      </c>
-      <c r="F116" s="7"/>
+        <v>446</v>
+      </c>
       <c r="G116" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>CAPACITORS,39pF 50V 5% Ceramic 0805 SMD,442</v>
+        <f t="shared" si="2"/>
+        <v>CAPACITORS,22pF 50V 5% Ceramic 0805 SMD,446</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B117" s="7" t="s">
-        <v>482</v>
+      <c r="B117" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>379</v>
@@ -12375,20 +12466,19 @@
         <v>383</v>
       </c>
       <c r="E117" s="7">
-        <v>443</v>
-      </c>
-      <c r="F117" s="7"/>
+        <v>447</v>
+      </c>
       <c r="G117" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>CAPACITORS,43pF 50V 5% Ceramic 0805 SMD,443</v>
+        <f t="shared" si="2"/>
+        <v>CAPACITORS,24pF 50V 5% Ceramic 0805 SMD,447</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B118" s="7" t="s">
-        <v>10</v>
+      <c r="B118" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>379</v>
@@ -12397,20 +12487,19 @@
         <v>383</v>
       </c>
       <c r="E118" s="7">
-        <v>444</v>
-      </c>
-      <c r="F118" s="7"/>
+        <v>448</v>
+      </c>
       <c r="G118" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>CAPACITORS,47pF 50V 5% Ceramic 0805 SMD,444</v>
+        <f t="shared" si="2"/>
+        <v>CAPACITORS,27pF 50V 5% Ceramic 0805 SMD,448</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B119" s="7" t="s">
-        <v>483</v>
+      <c r="B119" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>379</v>
@@ -12419,20 +12508,19 @@
         <v>383</v>
       </c>
       <c r="E119" s="7">
-        <v>445</v>
-      </c>
-      <c r="F119" s="7"/>
+        <v>449</v>
+      </c>
       <c r="G119" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>CAPACITORS,51pF 50V 5% Ceramic 0805 SMD,445</v>
+        <f t="shared" si="2"/>
+        <v>CAPACITORS,30pF 50V 5% Ceramic 0805 SMD,449</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B120" s="7" t="s">
-        <v>484</v>
+      <c r="B120" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>379</v>
@@ -12441,12 +12529,11 @@
         <v>383</v>
       </c>
       <c r="E120" s="7">
-        <v>446</v>
-      </c>
-      <c r="F120" s="7"/>
+        <v>450</v>
+      </c>
       <c r="G120" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>CAPACITORS,56pF 50V 5% Ceramic 0805 SMD,446</v>
+        <f t="shared" si="2"/>
+        <v>CAPACITORS,33pF 50V 5% Ceramic 0805 SMD,450</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -12454,7 +12541,7 @@
         <v>203</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>379</v>
@@ -12463,12 +12550,12 @@
         <v>383</v>
       </c>
       <c r="E121" s="7">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F121" s="7"/>
       <c r="G121" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>CAPACITORS,62pF 50V 5% Ceramic 0805 SMD,447</v>
+        <f t="shared" ref="G121:G168" si="3">_xlfn.CONCAT(A121,",",B121," ", C121, " ",D121,",",E121)</f>
+        <v>CAPACITORS,36pF 50V 5% Ceramic 0805 SMD,451</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -12476,7 +12563,7 @@
         <v>203</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>11</v>
+        <v>481</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>379</v>
@@ -12485,12 +12572,12 @@
         <v>383</v>
       </c>
       <c r="E122" s="7">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="F122" s="7"/>
       <c r="G122" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,68pF 50V 5% Ceramic 0805 SMD,448</v>
+        <v>CAPACITORS,39pF 50V 5% Ceramic 0805 SMD,452</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -12498,7 +12585,7 @@
         <v>203</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>12</v>
+        <v>482</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>379</v>
@@ -12507,12 +12594,12 @@
         <v>383</v>
       </c>
       <c r="E123" s="7">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F123" s="7"/>
       <c r="G123" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,75pF 50V 5% Ceramic 0805 SMD,449</v>
+        <v>CAPACITORS,43pF 50V 5% Ceramic 0805 SMD,453</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -12520,7 +12607,7 @@
         <v>203</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>379</v>
@@ -12529,12 +12616,12 @@
         <v>383</v>
       </c>
       <c r="E124" s="7">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F124" s="7"/>
       <c r="G124" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,82pF 50V 5% Ceramic 0805 SMD,450</v>
+        <v>CAPACITORS,47pF 50V 5% Ceramic 0805 SMD,454</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -12542,7 +12629,7 @@
         <v>203</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>379</v>
@@ -12551,12 +12638,12 @@
         <v>383</v>
       </c>
       <c r="E125" s="7">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="F125" s="7"/>
       <c r="G125" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,91pF 50V 5% Ceramic 0805 SMD,451</v>
+        <v>CAPACITORS,51pF 50V 5% Ceramic 0805 SMD,455</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -12564,7 +12651,7 @@
         <v>203</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>14</v>
+        <v>484</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>379</v>
@@ -12573,12 +12660,12 @@
         <v>383</v>
       </c>
       <c r="E126" s="7">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F126" s="7"/>
       <c r="G126" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,100pF 50V 5% Ceramic 0805 SMD,452</v>
+        <v>CAPACITORS,56pF 50V 5% Ceramic 0805 SMD,456</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -12586,7 +12673,7 @@
         <v>203</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>379</v>
@@ -12595,12 +12682,12 @@
         <v>383</v>
       </c>
       <c r="E127" s="7">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="F127" s="7"/>
       <c r="G127" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,110pF 50V 5% Ceramic 0805 SMD,453</v>
+        <v>CAPACITORS,62pF 50V 5% Ceramic 0805 SMD,457</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -12608,7 +12695,7 @@
         <v>203</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>376</v>
+        <v>11</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>379</v>
@@ -12617,12 +12704,12 @@
         <v>383</v>
       </c>
       <c r="E128" s="7">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F128" s="7"/>
       <c r="G128" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,120pF 50V 5% Ceramic 0805 SMD,454</v>
+        <v>CAPACITORS,68pF 50V 5% Ceramic 0805 SMD,458</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -12630,7 +12717,7 @@
         <v>203</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>488</v>
+        <v>12</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>379</v>
@@ -12639,12 +12726,12 @@
         <v>383</v>
       </c>
       <c r="E129" s="7">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="F129" s="7"/>
       <c r="G129" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,130pF 50V 5% Ceramic 0805 SMD,455</v>
+        <v>CAPACITORS,75pF 50V 5% Ceramic 0805 SMD,459</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -12652,7 +12739,7 @@
         <v>203</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>379</v>
@@ -12661,12 +12748,12 @@
         <v>383</v>
       </c>
       <c r="E130" s="7">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F130" s="7"/>
       <c r="G130" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,150pF 50V 5% Ceramic 0805 SMD,456</v>
+        <v>CAPACITORS,82pF 50V 5% Ceramic 0805 SMD,460</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -12674,7 +12761,7 @@
         <v>203</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>379</v>
@@ -12683,20 +12770,20 @@
         <v>383</v>
       </c>
       <c r="E131" s="7">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F131" s="7"/>
       <c r="G131" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,160pF 50V 5% Ceramic 0805 SMD,457</v>
+        <v>CAPACITORS,91pF 50V 5% Ceramic 0805 SMD,461</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>377</v>
+      <c r="B132" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>379</v>
@@ -12705,19 +12792,20 @@
         <v>383</v>
       </c>
       <c r="E132" s="7">
-        <v>458</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="F132" s="7"/>
       <c r="G132" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,180pF 50V 5% Ceramic 0805 SMD,458</v>
+        <v>CAPACITORS,100pF 50V 5% Ceramic 0805 SMD,462</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>490</v>
+      <c r="B133" s="7" t="s">
+        <v>487</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>379</v>
@@ -12726,95 +12814,100 @@
         <v>383</v>
       </c>
       <c r="E133" s="7">
-        <v>459</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="F133" s="7"/>
       <c r="G133" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,200pF 50V 5% Ceramic 0805 SMD,459</v>
+        <v>CAPACITORS,110pF 50V 5% Ceramic 0805 SMD,463</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>16</v>
+      <c r="B134" s="7" t="s">
+        <v>376</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>501</v>
+        <v>379</v>
       </c>
       <c r="D134" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E134" s="7">
-        <v>460</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="F134" s="7"/>
       <c r="G134" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,220pF 50V 10% Ceramic 0805 SMD,460</v>
+        <v>CAPACITORS,120pF 50V 5% Ceramic 0805 SMD,464</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>17</v>
+      <c r="B135" s="7" t="s">
+        <v>488</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>501</v>
+        <v>379</v>
       </c>
       <c r="D135" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E135" s="7">
-        <v>461</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="F135" s="7"/>
       <c r="G135" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,330pF 50V 10% Ceramic 0805 SMD,461</v>
+        <v>CAPACITORS,130pF 50V 5% Ceramic 0805 SMD,465</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>18</v>
+      <c r="B136" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>501</v>
+        <v>379</v>
       </c>
       <c r="D136" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E136" s="7">
-        <v>462</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="F136" s="7"/>
       <c r="G136" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,470pF 50V 10% Ceramic 0805 SMD,462</v>
+        <v>CAPACITORS,150pF 50V 5% Ceramic 0805 SMD,466</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>491</v>
+      <c r="B137" s="7" t="s">
+        <v>489</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>501</v>
+        <v>379</v>
       </c>
       <c r="D137" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E137" s="7">
-        <v>463</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="F137" s="7"/>
       <c r="G137" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,560pF 50V 10% Ceramic 0805 SMD,463</v>
+        <v>CAPACITORS,160pF 50V 5% Ceramic 0805 SMD,467</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -12822,20 +12915,20 @@
         <v>203</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>19</v>
+        <v>377</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>501</v>
+        <v>379</v>
       </c>
       <c r="D138" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E138" s="7">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="G138" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,680pF 50V 10% Ceramic 0805 SMD,464</v>
+        <v>CAPACITORS,180pF 50V 5% Ceramic 0805 SMD,468</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -12843,20 +12936,20 @@
         <v>203</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>501</v>
+        <v>379</v>
       </c>
       <c r="D139" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E139" s="7">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="G139" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,820pF 50V 10% Ceramic 0805 SMD,465</v>
+        <v>CAPACITORS,200pF 50V 5% Ceramic 0805 SMD,469</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -12864,7 +12957,7 @@
         <v>203</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>501</v>
@@ -12873,11 +12966,11 @@
         <v>383</v>
       </c>
       <c r="E140" s="7">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G140" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,1nF 50V 10% Ceramic 0805 SMD,466</v>
+        <v>CAPACITORS,220pF 50V 10% Ceramic 0805 SMD,470</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -12885,7 +12978,7 @@
         <v>203</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>501</v>
@@ -12894,11 +12987,11 @@
         <v>383</v>
       </c>
       <c r="E141" s="7">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G141" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,1.5nF 50V 10% Ceramic 0805 SMD,467</v>
+        <v>CAPACITORS,330pF 50V 10% Ceramic 0805 SMD,471</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -12906,7 +12999,7 @@
         <v>203</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>501</v>
@@ -12915,11 +13008,11 @@
         <v>383</v>
       </c>
       <c r="E142" s="7">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="G142" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,2.2nF 50V 10% Ceramic 0805 SMD,468</v>
+        <v>CAPACITORS,470pF 50V 10% Ceramic 0805 SMD,472</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -12927,7 +13020,7 @@
         <v>203</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>23</v>
+        <v>491</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>501</v>
@@ -12936,11 +13029,11 @@
         <v>383</v>
       </c>
       <c r="E143" s="7">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="G143" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,3.3nF 50V 10% Ceramic 0805 SMD,469</v>
+        <v>CAPACITORS,560pF 50V 10% Ceramic 0805 SMD,473</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -12948,7 +13041,7 @@
         <v>203</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>501</v>
@@ -12957,11 +13050,11 @@
         <v>383</v>
       </c>
       <c r="E144" s="7">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G144" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,4.7nF 50V 10% Ceramic 0805 SMD,470</v>
+        <v>CAPACITORS,680pF 50V 10% Ceramic 0805 SMD,474</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -12969,7 +13062,7 @@
         <v>203</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>25</v>
+        <v>492</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>501</v>
@@ -12978,11 +13071,11 @@
         <v>383</v>
       </c>
       <c r="E145" s="7">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="G145" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,6.8nF 50V 10% Ceramic 0805 SMD,471</v>
+        <v>CAPACITORS,820pF 50V 10% Ceramic 0805 SMD,475</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -12990,7 +13083,7 @@
         <v>203</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>493</v>
+        <v>20</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>501</v>
@@ -12999,11 +13092,11 @@
         <v>383</v>
       </c>
       <c r="E146" s="7">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G146" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,8.2nF 50V 10% Ceramic 0805 SMD,472</v>
+        <v>CAPACITORS,1nF 50V 10% Ceramic 0805 SMD,476</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -13011,7 +13104,7 @@
         <v>203</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>501</v>
@@ -13020,11 +13113,11 @@
         <v>383</v>
       </c>
       <c r="E147" s="7">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="G147" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,10nF 50V 10% Ceramic 0805 SMD,473</v>
+        <v>CAPACITORS,1.5nF 50V 10% Ceramic 0805 SMD,477</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -13032,7 +13125,7 @@
         <v>203</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>501</v>
@@ -13041,11 +13134,11 @@
         <v>383</v>
       </c>
       <c r="E148" s="7">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G148" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,15nF 50V 10% Ceramic 0805 SMD,474</v>
+        <v>CAPACITORS,2.2nF 50V 10% Ceramic 0805 SMD,478</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -13053,20 +13146,20 @@
         <v>203</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D149" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E149" s="7">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="G149" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,22nF 25V 10% Ceramic 0805 SMD,475</v>
+        <v>CAPACITORS,3.3nF 50V 10% Ceramic 0805 SMD,479</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -13074,20 +13167,20 @@
         <v>203</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>494</v>
+        <v>24</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D150" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E150" s="7">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="G150" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,33nF 25V 10% Ceramic 0805 SMD,476</v>
+        <v>CAPACITORS,4.7nF 50V 10% Ceramic 0805 SMD,480</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -13095,20 +13188,20 @@
         <v>203</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D151" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E151" s="7">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="G151" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,47nF 25V 10% Ceramic 0805 SMD,477</v>
+        <v>CAPACITORS,6.8nF 50V 10% Ceramic 0805 SMD,481</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -13116,20 +13209,20 @@
         <v>203</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>30</v>
+        <v>493</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D152" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E152" s="7">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="G152" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,68nF 25V 10% Ceramic 0805 SMD,478</v>
+        <v>CAPACITORS,8.2nF 50V 10% Ceramic 0805 SMD,482</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -13137,20 +13230,20 @@
         <v>203</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>495</v>
+        <v>26</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D153" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E153" s="7">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="G153" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,82nF 25V 10% Ceramic 0805 SMD,479</v>
+        <v>CAPACITORS,10nF 50V 10% Ceramic 0805 SMD,483</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -13158,20 +13251,20 @@
         <v>203</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D154" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E154" s="7">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G154" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,100nF 25V 10% Ceramic 0805 SMD,480</v>
+        <v>CAPACITORS,15nF 50V 10% Ceramic 0805 SMD,484</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -13179,20 +13272,20 @@
         <v>203</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D155" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E155" s="7">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="G155" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,220nF 50V 10% Ceramic 0805 SMD,481</v>
+        <v>CAPACITORS,22nF 25V 10% Ceramic 0805 SMD,485</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -13200,20 +13293,20 @@
         <v>203</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>34</v>
+        <v>494</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D156" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E156" s="7">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="G156" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,470nF 50V 10% Ceramic 0805 SMD,482</v>
+        <v>CAPACITORS,33nF 25V 10% Ceramic 0805 SMD,486</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -13221,7 +13314,7 @@
         <v>203</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>496</v>
+        <v>29</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>502</v>
@@ -13230,11 +13323,11 @@
         <v>383</v>
       </c>
       <c r="E157" s="7">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G157" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,680nF 25V 10% Ceramic 0805 SMD,483</v>
+        <v>CAPACITORS,47nF 25V 10% Ceramic 0805 SMD,487</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -13242,20 +13335,20 @@
         <v>203</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>378</v>
+        <v>30</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D158" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E158" s="7">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="G158" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,1uF 10V 10% Ceramic 0805 SMD,484</v>
+        <v>CAPACITORS,68nF 25V 10% Ceramic 0805 SMD,488</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -13263,20 +13356,20 @@
         <v>203</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D159" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E159" s="7">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G159" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,2.2uF 16V 10% Ceramic 0805 SMD,485</v>
+        <v>CAPACITORS,82nF 25V 10% Ceramic 0805 SMD,489</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -13284,20 +13377,20 @@
         <v>203</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>498</v>
+        <v>31</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D160" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E160" s="7">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G160" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,4.7uF 10V 10% Ceramic 0805 SMD,486</v>
+        <v>CAPACITORS,100nF 25V 10% Ceramic 0805 SMD,490</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -13305,20 +13398,20 @@
         <v>203</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>499</v>
+        <v>33</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D161" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E161" s="7">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="G161" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,10uF 10V 10% Ceramic 0805 SMD,487</v>
+        <v>CAPACITORS,220nF 50V 10% Ceramic 0805 SMD,491</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -13326,39 +13419,147 @@
         <v>203</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D162" s="17" t="s">
         <v>383</v>
       </c>
       <c r="E162" s="7">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G162" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>CAPACITORS,22uF 6.3V 10% Ceramic 0805 SMD,488</v>
+        <v>CAPACITORS,470nF 50V 10% Ceramic 0805 SMD,492</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D163" s="7"/>
+      <c r="A163" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="E163" s="7">
+        <v>493</v>
+      </c>
+      <c r="G163" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>CAPACITORS,680nF 25V 10% Ceramic 0805 SMD,493</v>
+      </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D164" s="7"/>
+      <c r="A164" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="E164" s="7">
+        <v>494</v>
+      </c>
+      <c r="G164" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>CAPACITORS,1uF 10V 10% Ceramic 0805 SMD,494</v>
+      </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D165" s="7"/>
+      <c r="A165" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="D165" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="E165" s="7">
+        <v>495</v>
+      </c>
+      <c r="G165" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>CAPACITORS,2.2uF 16V 10% Ceramic 0805 SMD,495</v>
+      </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D166" s="7"/>
+      <c r="A166" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="E166" s="7">
+        <v>496</v>
+      </c>
+      <c r="G166" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>CAPACITORS,4.7uF 10V 10% Ceramic 0805 SMD,496</v>
+      </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D167" s="7"/>
+      <c r="A167" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="E167" s="7">
+        <v>497</v>
+      </c>
+      <c r="G167" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>CAPACITORS,10uF 10V 10% Ceramic 0805 SMD,497</v>
+      </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D168" s="7"/>
+      <c r="A168" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="D168" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="E168" s="7">
+        <v>498</v>
+      </c>
+      <c r="G168" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>CAPACITORS,22uF 6.3V 10% Ceramic 0805 SMD,498</v>
+      </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D169" s="7"/>
@@ -13377,6 +13578,24 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D174" s="7"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D175" s="7"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D176" s="7"/>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D177" s="7"/>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D178" s="7"/>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D179" s="7"/>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D180" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13389,7 +13608,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="G69" sqref="G1:G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13420,11 +13639,11 @@
         <v>1</v>
       </c>
       <c r="E1" s="1">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="G1" s="1" t="str">
         <f t="shared" ref="G1:G9" si="0">_xlfn.CONCAT(A1,",",B1," ", C1, " ",D1,",",E1)</f>
-        <v>INDUCTORS,1uH 1/2W PTH,489</v>
+        <v>INDUCTORS,1uH 1/2W PTH,499</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -13441,11 +13660,11 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="G2" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INDUCTORS,4.7uH  1/2W PTH,490</v>
+        <v>INDUCTORS,4.7uH  1/2W PTH,500</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -13462,11 +13681,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="G3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INDUCTORS,6.8uH 1/2W PTH,491</v>
+        <v>INDUCTORS,6.8uH 1/2W PTH,501</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -13483,11 +13702,11 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="G4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INDUCTORS,10uH 1/2W PTH,492</v>
+        <v>INDUCTORS,10uH 1/2W PTH,502</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -13504,11 +13723,11 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INDUCTORS,22uH 1/2W PTH,493</v>
+        <v>INDUCTORS,22uH 1/2W PTH,503</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -13525,11 +13744,11 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="G6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INDUCTORS,47uH 1/2W PTH,494</v>
+        <v>INDUCTORS,47uH 1/2W PTH,504</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -13546,11 +13765,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="G7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INDUCTORS,68uH 1/2W PTH,495</v>
+        <v>INDUCTORS,68uH 1/2W PTH,505</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -13567,11 +13786,11 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INDUCTORS,100uH 1/2W PTH,496</v>
+        <v>INDUCTORS,100uH 1/2W PTH,506</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -13588,11 +13807,11 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INDUCTORS,220uH 1/2W PTH,497</v>
+        <v>INDUCTORS,220uH 1/2W PTH,507</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -13609,11 +13828,11 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" ref="G10:G12" si="1">_xlfn.CONCAT(A10,",",B10," ", C10, " ",D10,",",E10)</f>
-        <v>INDUCTORS,330uH 1/2W PTH,498</v>
+        <v>INDUCTORS,330uH 1/2W PTH,508</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -13630,11 +13849,11 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INDUCTORS,470uH 1/2W PTH,499</v>
+        <v>INDUCTORS,470uH 1/2W PTH,509</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -13651,11 +13870,11 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INDUCTORS,1mH 1/2W PTH,500</v>
+        <v>INDUCTORS,1mH 1/2W PTH,510</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -13672,11 +13891,11 @@
         <v>226</v>
       </c>
       <c r="E13" s="1">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" ref="G13:G21" si="2">_xlfn.CONCAT(A13,",",B13," ", C13, " ",D13,",",E13)</f>
-        <v>INDUCTORS,2.2uH (2R2) CD54 Series SMD,501</v>
+        <v>INDUCTORS,2.2uH (2R2) CD54 Series SMD,511</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -13693,11 +13912,11 @@
         <v>226</v>
       </c>
       <c r="E14" s="1">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INDUCTORS,3.3uH (3R) CD54 Series SMD,502</v>
+        <v>INDUCTORS,3.3uH (3R) CD54 Series SMD,512</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -13714,11 +13933,11 @@
         <v>226</v>
       </c>
       <c r="E15" s="1">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INDUCTORS,4.7uH (4R7) CD54 Series SMD,503</v>
+        <v>INDUCTORS,4.7uH (4R7) CD54 Series SMD,513</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -13735,11 +13954,11 @@
         <v>226</v>
       </c>
       <c r="E16" s="1">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INDUCTORS,6.8uH (6R8) CD54 Series SMD,504</v>
+        <v>INDUCTORS,6.8uH (6R8) CD54 Series SMD,514</v>
       </c>
       <c r="H16" s="10"/>
     </row>
@@ -13757,11 +13976,11 @@
         <v>226</v>
       </c>
       <c r="E17" s="1">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INDUCTORS,10uH (100) CD54 Series SMD,505</v>
+        <v>INDUCTORS,10uH (100) CD54 Series SMD,515</v>
       </c>
       <c r="H17" s="10"/>
     </row>
@@ -13779,11 +13998,11 @@
         <v>226</v>
       </c>
       <c r="E18" s="1">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INDUCTORS,22uH (220) CD54 Series SMD,506</v>
+        <v>INDUCTORS,22uH (220) CD54 Series SMD,516</v>
       </c>
       <c r="H18" s="10"/>
     </row>
@@ -13801,11 +14020,11 @@
         <v>226</v>
       </c>
       <c r="E19" s="1">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INDUCTORS,33uH (330) CD54 Series SMD,507</v>
+        <v>INDUCTORS,33uH (330) CD54 Series SMD,517</v>
       </c>
       <c r="H19" s="10"/>
     </row>
@@ -13823,11 +14042,11 @@
         <v>226</v>
       </c>
       <c r="E20" s="1">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INDUCTORS,47uH (470) CD54 Series SMD,508</v>
+        <v>INDUCTORS,47uH (470) CD54 Series SMD,518</v>
       </c>
       <c r="H20" s="10"/>
     </row>
@@ -13845,11 +14064,11 @@
         <v>226</v>
       </c>
       <c r="E21" s="1">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="G21" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INDUCTORS,68uH (680) CD54 Series SMD,509</v>
+        <v>INDUCTORS,68uH (680) CD54 Series SMD,519</v>
       </c>
       <c r="H21" s="10"/>
     </row>
@@ -13867,11 +14086,11 @@
         <v>226</v>
       </c>
       <c r="E22" s="1">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" ref="G22:G25" si="3">_xlfn.CONCAT(A22,",",B22," ", C22, " ",D22,",",E22)</f>
-        <v>INDUCTORS,100uH (101) CD54 Series SMD,510</v>
+        <v>INDUCTORS,100uH (101) CD54 Series SMD,520</v>
       </c>
       <c r="H22" s="10"/>
     </row>
@@ -13889,11 +14108,11 @@
         <v>226</v>
       </c>
       <c r="E23" s="1">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="G23" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INDUCTORS,220uH (221) CD54 Series SMD,511</v>
+        <v>INDUCTORS,220uH (221) CD54 Series SMD,521</v>
       </c>
       <c r="H23" s="10"/>
     </row>
@@ -13911,11 +14130,11 @@
         <v>226</v>
       </c>
       <c r="E24" s="1">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INDUCTORS,330uH (331) CD54 Series SMD,512</v>
+        <v>INDUCTORS,330uH (331) CD54 Series SMD,522</v>
       </c>
       <c r="H24" s="10"/>
     </row>
@@ -13933,11 +14152,11 @@
         <v>226</v>
       </c>
       <c r="E25" s="1">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="G25" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INDUCTORS,470uH (471) CD54 Series SMD,513</v>
+        <v>INDUCTORS,470uH (471) CD54 Series SMD,523</v>
       </c>
       <c r="H25" s="10"/>
     </row>
@@ -13955,11 +14174,11 @@
         <v>226</v>
       </c>
       <c r="E26" s="1">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="G26" s="12" t="str">
         <f t="shared" ref="G26:G69" si="4">_xlfn.CONCAT(A26,",",B26," ", C26, " ",D26,",",E26)</f>
-        <v>INDUCTORS,4.7nH 0805 SMD,514</v>
+        <v>INDUCTORS,4.7nH 0805 SMD,524</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -13976,11 +14195,11 @@
         <v>226</v>
       </c>
       <c r="E27" s="1">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="G27" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,6.8nH 0805 SMD,515</v>
+        <v>INDUCTORS,6.8nH 0805 SMD,525</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -13997,11 +14216,11 @@
         <v>226</v>
       </c>
       <c r="E28" s="1">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="G28" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,8.2nH 0805 SMD,516</v>
+        <v>INDUCTORS,8.2nH 0805 SMD,526</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -14018,11 +14237,11 @@
         <v>226</v>
       </c>
       <c r="E29" s="1">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="G29" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,10nH 0805 SMD,517</v>
+        <v>INDUCTORS,10nH 0805 SMD,527</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -14039,11 +14258,11 @@
         <v>226</v>
       </c>
       <c r="E30" s="1">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="G30" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,12nH 0805 SMD,518</v>
+        <v>INDUCTORS,12nH 0805 SMD,528</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -14060,11 +14279,11 @@
         <v>226</v>
       </c>
       <c r="E31" s="1">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="G31" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,15nH 0805 SMD,519</v>
+        <v>INDUCTORS,15nH 0805 SMD,529</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -14081,11 +14300,11 @@
         <v>226</v>
       </c>
       <c r="E32" s="1">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="G32" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,18nH 0805 SMD,520</v>
+        <v>INDUCTORS,18nH 0805 SMD,530</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -14102,11 +14321,11 @@
         <v>226</v>
       </c>
       <c r="E33" s="1">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="G33" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,22nH 0805 SMD,521</v>
+        <v>INDUCTORS,22nH 0805 SMD,531</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -14123,11 +14342,11 @@
         <v>226</v>
       </c>
       <c r="E34" s="1">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="G34" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,27nH 0805 SMD,522</v>
+        <v>INDUCTORS,27nH 0805 SMD,532</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -14144,11 +14363,11 @@
         <v>226</v>
       </c>
       <c r="E35" s="1">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="G35" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,33nH 0805 SMD,523</v>
+        <v>INDUCTORS,33nH 0805 SMD,533</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -14165,11 +14384,11 @@
         <v>226</v>
       </c>
       <c r="E36" s="1">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="G36" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,39nH 0805 SMD,524</v>
+        <v>INDUCTORS,39nH 0805 SMD,534</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -14186,11 +14405,11 @@
         <v>226</v>
       </c>
       <c r="E37" s="1">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="G37" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,47nH 0805 SMD,525</v>
+        <v>INDUCTORS,47nH 0805 SMD,535</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -14207,11 +14426,11 @@
         <v>226</v>
       </c>
       <c r="E38" s="1">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="G38" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,56nH 0805 SMD,526</v>
+        <v>INDUCTORS,56nH 0805 SMD,536</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -14228,11 +14447,11 @@
         <v>226</v>
       </c>
       <c r="E39" s="1">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="G39" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,68nH 0805 SMD,527</v>
+        <v>INDUCTORS,68nH 0805 SMD,537</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -14249,11 +14468,11 @@
         <v>226</v>
       </c>
       <c r="E40" s="1">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="G40" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,82nH 0805 SMD,528</v>
+        <v>INDUCTORS,82nH 0805 SMD,538</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -14270,11 +14489,11 @@
         <v>226</v>
       </c>
       <c r="E41" s="1">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="G41" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,100nH 0805 SMD,529</v>
+        <v>INDUCTORS,100nH 0805 SMD,539</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -14291,11 +14510,11 @@
         <v>226</v>
       </c>
       <c r="E42" s="1">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="G42" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,120nH 0805 SMD,530</v>
+        <v>INDUCTORS,120nH 0805 SMD,540</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -14312,11 +14531,11 @@
         <v>226</v>
       </c>
       <c r="E43" s="1">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="G43" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,150nH 0805 SMD,531</v>
+        <v>INDUCTORS,150nH 0805 SMD,541</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -14333,11 +14552,11 @@
         <v>226</v>
       </c>
       <c r="E44" s="1">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="G44" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,220nH 0805 SMD,532</v>
+        <v>INDUCTORS,220nH 0805 SMD,542</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -14354,11 +14573,11 @@
         <v>226</v>
       </c>
       <c r="E45" s="1">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="G45" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,270nH 0805 SMD,533</v>
+        <v>INDUCTORS,270nH 0805 SMD,543</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -14375,11 +14594,11 @@
         <v>226</v>
       </c>
       <c r="E46" s="1">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="G46" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,330nH 0805 SMD,534</v>
+        <v>INDUCTORS,330nH 0805 SMD,544</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -14396,11 +14615,11 @@
         <v>226</v>
       </c>
       <c r="E47" s="1">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="G47" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,470nH 0805 SMD,535</v>
+        <v>INDUCTORS,470nH 0805 SMD,545</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -14417,11 +14636,11 @@
         <v>226</v>
       </c>
       <c r="E48" s="1">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="G48" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,560nH 0805 SMD,536</v>
+        <v>INDUCTORS,560nH 0805 SMD,546</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -14438,11 +14657,11 @@
         <v>226</v>
       </c>
       <c r="E49" s="1">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="G49" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,680nH 0805 SMD,537</v>
+        <v>INDUCTORS,680nH 0805 SMD,547</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -14459,11 +14678,11 @@
         <v>226</v>
       </c>
       <c r="E50" s="1">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="G50" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,820nH 0805 SMD,538</v>
+        <v>INDUCTORS,820nH 0805 SMD,548</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -14480,11 +14699,11 @@
         <v>226</v>
       </c>
       <c r="E51" s="1">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="G51" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,1.0uH 0805 SMD,539</v>
+        <v>INDUCTORS,1.0uH 0805 SMD,549</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -14501,11 +14720,11 @@
         <v>226</v>
       </c>
       <c r="E52" s="1">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="G52" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,1.2uH 0805 SMD,540</v>
+        <v>INDUCTORS,1.2uH 0805 SMD,550</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -14522,11 +14741,11 @@
         <v>226</v>
       </c>
       <c r="E53" s="1">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="G53" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,1.5uH 0805 SMD,541</v>
+        <v>INDUCTORS,1.5uH 0805 SMD,551</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -14543,11 +14762,11 @@
         <v>226</v>
       </c>
       <c r="E54" s="1">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="G54" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,1.8uH 0805 SMD,542</v>
+        <v>INDUCTORS,1.8uH 0805 SMD,552</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -14564,11 +14783,11 @@
         <v>226</v>
       </c>
       <c r="E55" s="1">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="G55" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,2.2uH 0805 SMD,543</v>
+        <v>INDUCTORS,2.2uH 0805 SMD,553</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -14585,11 +14804,11 @@
         <v>226</v>
       </c>
       <c r="E56" s="1">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="G56" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,2.7uH 0805 SMD,544</v>
+        <v>INDUCTORS,2.7uH 0805 SMD,554</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -14606,11 +14825,11 @@
         <v>226</v>
       </c>
       <c r="E57" s="1">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="G57" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,3.3uH 0805 SMD,545</v>
+        <v>INDUCTORS,3.3uH 0805 SMD,555</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -14627,11 +14846,11 @@
         <v>226</v>
       </c>
       <c r="E58" s="1">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="G58" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,4.7uH 0805 SMD,546</v>
+        <v>INDUCTORS,4.7uH 0805 SMD,556</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -14648,11 +14867,11 @@
         <v>226</v>
       </c>
       <c r="E59" s="1">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="G59" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,5.6uH 0805 SMD,547</v>
+        <v>INDUCTORS,5.6uH 0805 SMD,557</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -14669,11 +14888,11 @@
         <v>226</v>
       </c>
       <c r="E60" s="1">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="G60" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,6.8uH 0805 SMD,548</v>
+        <v>INDUCTORS,6.8uH 0805 SMD,558</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -14690,11 +14909,11 @@
         <v>226</v>
       </c>
       <c r="E61" s="1">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="G61" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,8.2uH 0805 SMD,549</v>
+        <v>INDUCTORS,8.2uH 0805 SMD,559</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -14711,11 +14930,11 @@
         <v>226</v>
       </c>
       <c r="E62" s="1">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="G62" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,10uH 0805 SMD,550</v>
+        <v>INDUCTORS,10uH 0805 SMD,560</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -14732,11 +14951,11 @@
         <v>226</v>
       </c>
       <c r="E63" s="1">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G63" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,12uH 0805 SMD,551</v>
+        <v>INDUCTORS,12uH 0805 SMD,561</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -14753,11 +14972,11 @@
         <v>226</v>
       </c>
       <c r="E64" s="1">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="G64" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,15uH 0805 SMD,552</v>
+        <v>INDUCTORS,15uH 0805 SMD,562</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -14774,11 +14993,11 @@
         <v>226</v>
       </c>
       <c r="E65" s="1">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="G65" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,18uH 0805 SMD,553</v>
+        <v>INDUCTORS,18uH 0805 SMD,563</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -14795,11 +15014,11 @@
         <v>226</v>
       </c>
       <c r="E66" s="1">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="G66" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,22uH 0805 SMD,554</v>
+        <v>INDUCTORS,22uH 0805 SMD,564</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -14816,11 +15035,11 @@
         <v>226</v>
       </c>
       <c r="E67" s="1">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="G67" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,33uH 0805 SMD,555</v>
+        <v>INDUCTORS,33uH 0805 SMD,565</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -14837,11 +15056,11 @@
         <v>226</v>
       </c>
       <c r="E68" s="1">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="G68" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,47uH 0805 SMD,556</v>
+        <v>INDUCTORS,47uH 0805 SMD,566</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -14858,11 +15077,11 @@
         <v>226</v>
       </c>
       <c r="E69" s="1">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="G69" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,100uH 0805 SMD,557</v>
+        <v>INDUCTORS,100uH 0805 SMD,567</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">

--- a/Assets/Batch Register Parts/Batch Build.xlsx
+++ b/Assets/Batch Register Parts/Batch Build.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PartsHunter\Assets\Batch Register Parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B4C047-6834-4CE2-BCC0-B0890FAFF4CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F489A76-35E2-4A07-B0E9-D2C31D422278}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="28776" windowHeight="16176" activeTab="2" xr2:uid="{EA03BA3F-EF08-4D3E-B130-CAB43F857BBF}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="560">
   <si>
     <t>1/2W</t>
   </si>
@@ -1691,6 +1691,39 @@
   </si>
   <si>
     <t>6.3V 5% Ceramic</t>
+  </si>
+  <si>
+    <t>220uF 25V</t>
+  </si>
+  <si>
+    <t>330uF 35V</t>
+  </si>
+  <si>
+    <t>330uF 16V</t>
+  </si>
+  <si>
+    <t>470uF 35V</t>
+  </si>
+  <si>
+    <t>470uF 16V</t>
+  </si>
+  <si>
+    <t>680uF 16V</t>
+  </si>
+  <si>
+    <t>1000uF 10V</t>
+  </si>
+  <si>
+    <t>1500uF 6.3V</t>
+  </si>
+  <si>
+    <t>6x5 Electrolytic</t>
+  </si>
+  <si>
+    <t>8x10 Electrolytic</t>
+  </si>
+  <si>
+    <t>10x10 Electrolytic</t>
   </si>
 </sst>
 </file>
@@ -9922,10 +9955,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBACCCA-E4A7-4298-9222-BB383B67ECE7}">
-  <dimension ref="A1:G180"/>
+  <dimension ref="A1:G184"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G168" sqref="G1:G168"/>
+    <sheetView topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12554,7 +12587,7 @@
       </c>
       <c r="F121" s="7"/>
       <c r="G121" s="7" t="str">
-        <f t="shared" ref="G121:G168" si="3">_xlfn.CONCAT(A121,",",B121," ", C121, " ",D121,",",E121)</f>
+        <f t="shared" ref="G121:G169" si="3">_xlfn.CONCAT(A121,",",B121," ", C121, " ",D121,",",E121)</f>
         <v>CAPACITORS,36pF 50V 5% Ceramic 0805 SMD,451</v>
       </c>
     </row>
@@ -13562,40 +13595,278 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D169" s="7"/>
+      <c r="A169" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E169" s="7">
+        <v>499</v>
+      </c>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>CAPACITORS,10uF 50V 6x5 Electrolytic SMD,499</v>
+      </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D170" s="7"/>
+      <c r="A170" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E170" s="7">
+        <v>500</v>
+      </c>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7" t="str">
+        <f t="shared" ref="G170" si="4">_xlfn.CONCAT(A170,",",B170," ", C170, " ",D170,",",E170)</f>
+        <v>CAPACITORS,100uF 50V 8x10 Electrolytic SMD,500</v>
+      </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D171" s="7"/>
+      <c r="A171" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E171" s="7">
+        <v>501</v>
+      </c>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7" t="str">
+        <f t="shared" ref="G171:G184" si="5">_xlfn.CONCAT(A171,",",B171," ", C171, " ",D171,",",E171)</f>
+        <v>CAPACITORS,220uF 25V 8x10 Electrolytic SMD,501</v>
+      </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D172" s="7"/>
+      <c r="A172" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E172" s="7">
+        <v>502</v>
+      </c>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>CAPACITORS,330uF 35V 10x10 Electrolytic SMD,502</v>
+      </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D173" s="7"/>
+      <c r="A173" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E173" s="7">
+        <v>503</v>
+      </c>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>CAPACITORS,330uF 16V 8x10 Electrolytic SMD,503</v>
+      </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D174" s="7"/>
+      <c r="A174" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E174" s="7">
+        <v>504</v>
+      </c>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>CAPACITORS,470uF 35V 10x10 Electrolytic SMD,504</v>
+      </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D175" s="7"/>
+      <c r="A175" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E175" s="7">
+        <v>505</v>
+      </c>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>CAPACITORS,470uF 16V 8x10 Electrolytic SMD,505</v>
+      </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D176" s="7"/>
-    </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D177" s="7"/>
-    </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D178" s="7"/>
-    </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E176" s="7">
+        <v>506</v>
+      </c>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>CAPACITORS,680uF 16V 10x10 Electrolytic SMD,506</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E177" s="7">
+        <v>507</v>
+      </c>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>CAPACITORS,1000uF 10V 10x10 Electrolytic SMD,507</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E178" s="7">
+        <v>508</v>
+      </c>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v>CAPACITORS,1500uF 6.3V 10x10 Electrolytic SMD,508</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="7"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="7"/>
       <c r="D179" s="7"/>
-    </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="7"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="7"/>
       <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="7"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="7"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="7"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="7"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13608,7 +13879,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G69" sqref="G1:G69"/>
+      <selection activeCell="E1" sqref="E1:E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13639,11 +13910,11 @@
         <v>1</v>
       </c>
       <c r="E1" s="1">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="G1" s="1" t="str">
         <f t="shared" ref="G1:G9" si="0">_xlfn.CONCAT(A1,",",B1," ", C1, " ",D1,",",E1)</f>
-        <v>INDUCTORS,1uH 1/2W PTH,499</v>
+        <v>INDUCTORS,1uH 1/2W PTH,509</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -13660,11 +13931,11 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="G2" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INDUCTORS,4.7uH  1/2W PTH,500</v>
+        <v>INDUCTORS,4.7uH  1/2W PTH,510</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -13681,11 +13952,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="G3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INDUCTORS,6.8uH 1/2W PTH,501</v>
+        <v>INDUCTORS,6.8uH 1/2W PTH,511</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -13702,11 +13973,11 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="G4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INDUCTORS,10uH 1/2W PTH,502</v>
+        <v>INDUCTORS,10uH 1/2W PTH,512</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -13723,11 +13994,11 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INDUCTORS,22uH 1/2W PTH,503</v>
+        <v>INDUCTORS,22uH 1/2W PTH,513</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -13744,11 +14015,11 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="G6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INDUCTORS,47uH 1/2W PTH,504</v>
+        <v>INDUCTORS,47uH 1/2W PTH,514</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -13765,11 +14036,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="G7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INDUCTORS,68uH 1/2W PTH,505</v>
+        <v>INDUCTORS,68uH 1/2W PTH,515</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -13786,11 +14057,11 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INDUCTORS,100uH 1/2W PTH,506</v>
+        <v>INDUCTORS,100uH 1/2W PTH,516</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -13807,11 +14078,11 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>INDUCTORS,220uH 1/2W PTH,507</v>
+        <v>INDUCTORS,220uH 1/2W PTH,517</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -13828,11 +14099,11 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" ref="G10:G12" si="1">_xlfn.CONCAT(A10,",",B10," ", C10, " ",D10,",",E10)</f>
-        <v>INDUCTORS,330uH 1/2W PTH,508</v>
+        <v>INDUCTORS,330uH 1/2W PTH,518</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -13849,11 +14120,11 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INDUCTORS,470uH 1/2W PTH,509</v>
+        <v>INDUCTORS,470uH 1/2W PTH,519</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -13870,11 +14141,11 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="G12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>INDUCTORS,1mH 1/2W PTH,510</v>
+        <v>INDUCTORS,1mH 1/2W PTH,520</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -13891,11 +14162,11 @@
         <v>226</v>
       </c>
       <c r="E13" s="1">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" ref="G13:G21" si="2">_xlfn.CONCAT(A13,",",B13," ", C13, " ",D13,",",E13)</f>
-        <v>INDUCTORS,2.2uH (2R2) CD54 Series SMD,511</v>
+        <v>INDUCTORS,2.2uH (2R2) CD54 Series SMD,521</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -13912,11 +14183,11 @@
         <v>226</v>
       </c>
       <c r="E14" s="1">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INDUCTORS,3.3uH (3R) CD54 Series SMD,512</v>
+        <v>INDUCTORS,3.3uH (3R) CD54 Series SMD,522</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -13933,11 +14204,11 @@
         <v>226</v>
       </c>
       <c r="E15" s="1">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INDUCTORS,4.7uH (4R7) CD54 Series SMD,513</v>
+        <v>INDUCTORS,4.7uH (4R7) CD54 Series SMD,523</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -13954,11 +14225,11 @@
         <v>226</v>
       </c>
       <c r="E16" s="1">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INDUCTORS,6.8uH (6R8) CD54 Series SMD,514</v>
+        <v>INDUCTORS,6.8uH (6R8) CD54 Series SMD,524</v>
       </c>
       <c r="H16" s="10"/>
     </row>
@@ -13976,11 +14247,11 @@
         <v>226</v>
       </c>
       <c r="E17" s="1">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INDUCTORS,10uH (100) CD54 Series SMD,515</v>
+        <v>INDUCTORS,10uH (100) CD54 Series SMD,525</v>
       </c>
       <c r="H17" s="10"/>
     </row>
@@ -13998,11 +14269,11 @@
         <v>226</v>
       </c>
       <c r="E18" s="1">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INDUCTORS,22uH (220) CD54 Series SMD,516</v>
+        <v>INDUCTORS,22uH (220) CD54 Series SMD,526</v>
       </c>
       <c r="H18" s="10"/>
     </row>
@@ -14020,11 +14291,11 @@
         <v>226</v>
       </c>
       <c r="E19" s="1">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INDUCTORS,33uH (330) CD54 Series SMD,517</v>
+        <v>INDUCTORS,33uH (330) CD54 Series SMD,527</v>
       </c>
       <c r="H19" s="10"/>
     </row>
@@ -14042,11 +14313,11 @@
         <v>226</v>
       </c>
       <c r="E20" s="1">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INDUCTORS,47uH (470) CD54 Series SMD,518</v>
+        <v>INDUCTORS,47uH (470) CD54 Series SMD,528</v>
       </c>
       <c r="H20" s="10"/>
     </row>
@@ -14064,11 +14335,11 @@
         <v>226</v>
       </c>
       <c r="E21" s="1">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="G21" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>INDUCTORS,68uH (680) CD54 Series SMD,519</v>
+        <v>INDUCTORS,68uH (680) CD54 Series SMD,529</v>
       </c>
       <c r="H21" s="10"/>
     </row>
@@ -14086,11 +14357,11 @@
         <v>226</v>
       </c>
       <c r="E22" s="1">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" ref="G22:G25" si="3">_xlfn.CONCAT(A22,",",B22," ", C22, " ",D22,",",E22)</f>
-        <v>INDUCTORS,100uH (101) CD54 Series SMD,520</v>
+        <v>INDUCTORS,100uH (101) CD54 Series SMD,530</v>
       </c>
       <c r="H22" s="10"/>
     </row>
@@ -14108,11 +14379,11 @@
         <v>226</v>
       </c>
       <c r="E23" s="1">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="G23" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INDUCTORS,220uH (221) CD54 Series SMD,521</v>
+        <v>INDUCTORS,220uH (221) CD54 Series SMD,531</v>
       </c>
       <c r="H23" s="10"/>
     </row>
@@ -14130,11 +14401,11 @@
         <v>226</v>
       </c>
       <c r="E24" s="1">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INDUCTORS,330uH (331) CD54 Series SMD,522</v>
+        <v>INDUCTORS,330uH (331) CD54 Series SMD,532</v>
       </c>
       <c r="H24" s="10"/>
     </row>
@@ -14152,11 +14423,11 @@
         <v>226</v>
       </c>
       <c r="E25" s="1">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="G25" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>INDUCTORS,470uH (471) CD54 Series SMD,523</v>
+        <v>INDUCTORS,470uH (471) CD54 Series SMD,533</v>
       </c>
       <c r="H25" s="10"/>
     </row>
@@ -14174,11 +14445,11 @@
         <v>226</v>
       </c>
       <c r="E26" s="1">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="G26" s="12" t="str">
         <f t="shared" ref="G26:G69" si="4">_xlfn.CONCAT(A26,",",B26," ", C26, " ",D26,",",E26)</f>
-        <v>INDUCTORS,4.7nH 0805 SMD,524</v>
+        <v>INDUCTORS,4.7nH 0805 SMD,534</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -14195,11 +14466,11 @@
         <v>226</v>
       </c>
       <c r="E27" s="1">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="G27" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,6.8nH 0805 SMD,525</v>
+        <v>INDUCTORS,6.8nH 0805 SMD,535</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -14216,11 +14487,11 @@
         <v>226</v>
       </c>
       <c r="E28" s="1">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="G28" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,8.2nH 0805 SMD,526</v>
+        <v>INDUCTORS,8.2nH 0805 SMD,536</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -14237,11 +14508,11 @@
         <v>226</v>
       </c>
       <c r="E29" s="1">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="G29" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,10nH 0805 SMD,527</v>
+        <v>INDUCTORS,10nH 0805 SMD,537</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -14258,11 +14529,11 @@
         <v>226</v>
       </c>
       <c r="E30" s="1">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="G30" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,12nH 0805 SMD,528</v>
+        <v>INDUCTORS,12nH 0805 SMD,538</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -14279,11 +14550,11 @@
         <v>226</v>
       </c>
       <c r="E31" s="1">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="G31" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,15nH 0805 SMD,529</v>
+        <v>INDUCTORS,15nH 0805 SMD,539</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -14300,11 +14571,11 @@
         <v>226</v>
       </c>
       <c r="E32" s="1">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="G32" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,18nH 0805 SMD,530</v>
+        <v>INDUCTORS,18nH 0805 SMD,540</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -14321,11 +14592,11 @@
         <v>226</v>
       </c>
       <c r="E33" s="1">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="G33" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,22nH 0805 SMD,531</v>
+        <v>INDUCTORS,22nH 0805 SMD,541</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -14342,11 +14613,11 @@
         <v>226</v>
       </c>
       <c r="E34" s="1">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="G34" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,27nH 0805 SMD,532</v>
+        <v>INDUCTORS,27nH 0805 SMD,542</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -14363,11 +14634,11 @@
         <v>226</v>
       </c>
       <c r="E35" s="1">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="G35" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,33nH 0805 SMD,533</v>
+        <v>INDUCTORS,33nH 0805 SMD,543</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -14384,11 +14655,11 @@
         <v>226</v>
       </c>
       <c r="E36" s="1">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="G36" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,39nH 0805 SMD,534</v>
+        <v>INDUCTORS,39nH 0805 SMD,544</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -14405,11 +14676,11 @@
         <v>226</v>
       </c>
       <c r="E37" s="1">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="G37" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,47nH 0805 SMD,535</v>
+        <v>INDUCTORS,47nH 0805 SMD,545</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -14426,11 +14697,11 @@
         <v>226</v>
       </c>
       <c r="E38" s="1">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="G38" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,56nH 0805 SMD,536</v>
+        <v>INDUCTORS,56nH 0805 SMD,546</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -14447,11 +14718,11 @@
         <v>226</v>
       </c>
       <c r="E39" s="1">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="G39" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,68nH 0805 SMD,537</v>
+        <v>INDUCTORS,68nH 0805 SMD,547</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -14468,11 +14739,11 @@
         <v>226</v>
       </c>
       <c r="E40" s="1">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="G40" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,82nH 0805 SMD,538</v>
+        <v>INDUCTORS,82nH 0805 SMD,548</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -14489,11 +14760,11 @@
         <v>226</v>
       </c>
       <c r="E41" s="1">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="G41" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,100nH 0805 SMD,539</v>
+        <v>INDUCTORS,100nH 0805 SMD,549</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -14510,11 +14781,11 @@
         <v>226</v>
       </c>
       <c r="E42" s="1">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="G42" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,120nH 0805 SMD,540</v>
+        <v>INDUCTORS,120nH 0805 SMD,550</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -14531,11 +14802,11 @@
         <v>226</v>
       </c>
       <c r="E43" s="1">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="G43" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,150nH 0805 SMD,541</v>
+        <v>INDUCTORS,150nH 0805 SMD,551</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -14552,11 +14823,11 @@
         <v>226</v>
       </c>
       <c r="E44" s="1">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="G44" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,220nH 0805 SMD,542</v>
+        <v>INDUCTORS,220nH 0805 SMD,552</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -14573,11 +14844,11 @@
         <v>226</v>
       </c>
       <c r="E45" s="1">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="G45" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,270nH 0805 SMD,543</v>
+        <v>INDUCTORS,270nH 0805 SMD,553</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -14594,11 +14865,11 @@
         <v>226</v>
       </c>
       <c r="E46" s="1">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="G46" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,330nH 0805 SMD,544</v>
+        <v>INDUCTORS,330nH 0805 SMD,554</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -14615,11 +14886,11 @@
         <v>226</v>
       </c>
       <c r="E47" s="1">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="G47" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,470nH 0805 SMD,545</v>
+        <v>INDUCTORS,470nH 0805 SMD,555</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -14636,11 +14907,11 @@
         <v>226</v>
       </c>
       <c r="E48" s="1">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="G48" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,560nH 0805 SMD,546</v>
+        <v>INDUCTORS,560nH 0805 SMD,556</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -14657,11 +14928,11 @@
         <v>226</v>
       </c>
       <c r="E49" s="1">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="G49" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,680nH 0805 SMD,547</v>
+        <v>INDUCTORS,680nH 0805 SMD,557</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -14678,11 +14949,11 @@
         <v>226</v>
       </c>
       <c r="E50" s="1">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="G50" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,820nH 0805 SMD,548</v>
+        <v>INDUCTORS,820nH 0805 SMD,558</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -14699,11 +14970,11 @@
         <v>226</v>
       </c>
       <c r="E51" s="1">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="G51" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,1.0uH 0805 SMD,549</v>
+        <v>INDUCTORS,1.0uH 0805 SMD,559</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -14720,11 +14991,11 @@
         <v>226</v>
       </c>
       <c r="E52" s="1">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="G52" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,1.2uH 0805 SMD,550</v>
+        <v>INDUCTORS,1.2uH 0805 SMD,560</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -14741,11 +15012,11 @@
         <v>226</v>
       </c>
       <c r="E53" s="1">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G53" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,1.5uH 0805 SMD,551</v>
+        <v>INDUCTORS,1.5uH 0805 SMD,561</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -14762,11 +15033,11 @@
         <v>226</v>
       </c>
       <c r="E54" s="1">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="G54" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,1.8uH 0805 SMD,552</v>
+        <v>INDUCTORS,1.8uH 0805 SMD,562</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -14783,11 +15054,11 @@
         <v>226</v>
       </c>
       <c r="E55" s="1">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="G55" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,2.2uH 0805 SMD,553</v>
+        <v>INDUCTORS,2.2uH 0805 SMD,563</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -14804,11 +15075,11 @@
         <v>226</v>
       </c>
       <c r="E56" s="1">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="G56" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,2.7uH 0805 SMD,554</v>
+        <v>INDUCTORS,2.7uH 0805 SMD,564</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -14825,11 +15096,11 @@
         <v>226</v>
       </c>
       <c r="E57" s="1">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="G57" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,3.3uH 0805 SMD,555</v>
+        <v>INDUCTORS,3.3uH 0805 SMD,565</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -14846,11 +15117,11 @@
         <v>226</v>
       </c>
       <c r="E58" s="1">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="G58" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,4.7uH 0805 SMD,556</v>
+        <v>INDUCTORS,4.7uH 0805 SMD,566</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -14867,11 +15138,11 @@
         <v>226</v>
       </c>
       <c r="E59" s="1">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="G59" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,5.6uH 0805 SMD,557</v>
+        <v>INDUCTORS,5.6uH 0805 SMD,567</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -14888,11 +15159,11 @@
         <v>226</v>
       </c>
       <c r="E60" s="1">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="G60" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,6.8uH 0805 SMD,558</v>
+        <v>INDUCTORS,6.8uH 0805 SMD,568</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -14909,11 +15180,11 @@
         <v>226</v>
       </c>
       <c r="E61" s="1">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="G61" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,8.2uH 0805 SMD,559</v>
+        <v>INDUCTORS,8.2uH 0805 SMD,569</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -14930,11 +15201,11 @@
         <v>226</v>
       </c>
       <c r="E62" s="1">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="G62" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,10uH 0805 SMD,560</v>
+        <v>INDUCTORS,10uH 0805 SMD,570</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -14951,11 +15222,11 @@
         <v>226</v>
       </c>
       <c r="E63" s="1">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="G63" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,12uH 0805 SMD,561</v>
+        <v>INDUCTORS,12uH 0805 SMD,571</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -14972,11 +15243,11 @@
         <v>226</v>
       </c>
       <c r="E64" s="1">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="G64" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,15uH 0805 SMD,562</v>
+        <v>INDUCTORS,15uH 0805 SMD,572</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -14993,11 +15264,11 @@
         <v>226</v>
       </c>
       <c r="E65" s="1">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="G65" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,18uH 0805 SMD,563</v>
+        <v>INDUCTORS,18uH 0805 SMD,573</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -15014,11 +15285,11 @@
         <v>226</v>
       </c>
       <c r="E66" s="1">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="G66" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,22uH 0805 SMD,564</v>
+        <v>INDUCTORS,22uH 0805 SMD,574</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -15035,11 +15306,11 @@
         <v>226</v>
       </c>
       <c r="E67" s="1">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="G67" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,33uH 0805 SMD,565</v>
+        <v>INDUCTORS,33uH 0805 SMD,575</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -15056,11 +15327,11 @@
         <v>226</v>
       </c>
       <c r="E68" s="1">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="G68" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,47uH 0805 SMD,566</v>
+        <v>INDUCTORS,47uH 0805 SMD,576</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -15077,11 +15348,11 @@
         <v>226</v>
       </c>
       <c r="E69" s="1">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="G69" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>INDUCTORS,100uH 0805 SMD,567</v>
+        <v>INDUCTORS,100uH 0805 SMD,577</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
